--- a/ressources/game_data_input.xlsx
+++ b/ressources/game_data_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Dev\AresExpedition\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C963BFCE-E8D9-4598-B43F-6EF445E127F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26A050F-1886-4C66-B957-DFF9E284784E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{246B09A9-7FD2-4D1A-836E-837E4615E07E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{246B09A9-7FD2-4D1A-836E-837E4615E07E}"/>
   </bookViews>
   <sheets>
     <sheet name="MODOP" sheetId="3" r:id="rId1"/>
@@ -2124,10 +2124,10 @@
     <t>number</t>
   </si>
   <si>
-    <t>list</t>
-  </si>
-  <si>
     <t>dict/string</t>
+  </si>
+  <si>
+    <t>list/number</t>
   </si>
 </sst>
 </file>
@@ -2203,21 +2203,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2546,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBBC92B-05E5-49FC-B45C-F8CB56687D0E}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,10 +2553,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>685</v>
       </c>
     </row>
@@ -2581,18 +2577,18 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
@@ -2600,27 +2596,27 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
@@ -2628,12 +2624,12 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>680</v>
       </c>
       <c r="B17" t="s">
@@ -2641,7 +2637,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>681</v>
       </c>
       <c r="B18" t="s">
@@ -2649,7 +2645,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>684</v>
       </c>
       <c r="B19" t="s">
@@ -2657,20 +2653,20 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>682</v>
       </c>
       <c r="B22" t="s">
@@ -2678,7 +2674,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>683</v>
       </c>
       <c r="B23" t="s">
@@ -2686,32 +2682,32 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C29" t="s">
@@ -2719,131 +2715,131 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>661</v>
       </c>
       <c r="C39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>662</v>
       </c>
       <c r="C40" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>663</v>
       </c>
       <c r="C41" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>664</v>
       </c>
       <c r="C42" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>665</v>
       </c>
       <c r="C43" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>666</v>
       </c>
       <c r="C44" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>667</v>
       </c>
       <c r="C45" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -2867,10 +2863,10 @@
     <col min="2" max="2" width="11.42578125" style="3"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="72.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="72.28515625" style="4" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.42578125" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" customWidth="1"/>
@@ -2878,130 +2874,130 @@
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="19.42578125" customWidth="1"/>
     <col min="21" max="21" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" style="10" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="46.140625" style="10" customWidth="1"/>
-    <col min="26" max="26" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="40.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" style="10" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="8" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="46.140625" style="8" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="8" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="27.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="36.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="6" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:36" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>667</v>
       </c>
     </row>
@@ -3045,7 +3041,7 @@
       <c r="L2" s="3">
         <v>2</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>450</v>
       </c>
       <c r="O2" s="2"/>
@@ -3059,7 +3055,7 @@
       <c r="U2" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="8" t="s">
         <v>668</v>
       </c>
     </row>
@@ -3100,7 +3096,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H3,params!$E:$E,0)),"")&amp;IF(AND($H3&lt;&gt;"",$I3&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I3,params!$E:$E,0)),"")&amp;IF(AND($I3&lt;&gt;"",$J3&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J3,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>451</v>
       </c>
       <c r="O3" s="2"/>
@@ -3152,7 +3148,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H4,params!$E:$E,0)),"")&amp;IF(AND($H4&lt;&gt;"",$I4&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I4,params!$E:$E,0)),"")&amp;IF(AND($I4&lt;&gt;"",$J4&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J4,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>452</v>
       </c>
       <c r="O4" s="2"/>
@@ -3204,10 +3200,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H5,params!$E:$E,0)),"")&amp;IF(AND($H5&lt;&gt;"",$I5&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I5,params!$E:$E,0)),"")&amp;IF(AND($I5&lt;&gt;"",$J5&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J5,params!$E:$E,0)),"")</f>
         <v>3,1</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>453</v>
       </c>
       <c r="O5" s="2"/>
@@ -3259,7 +3255,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H6,params!$E:$E,0)),"")&amp;IF(AND($H6&lt;&gt;"",$I6&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I6,params!$E:$E,0)),"")&amp;IF(AND($I6&lt;&gt;"",$J6&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J6,params!$E:$E,0)),"")</f>
         <v>9</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>454</v>
       </c>
       <c r="O6" s="2"/>
@@ -3311,10 +3307,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H7,params!$E:$E,0)),"")&amp;IF(AND($H7&lt;&gt;"",$I7&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I7,params!$E:$E,0)),"")&amp;IF(AND($I7&lt;&gt;"",$J7&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J7,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>455</v>
       </c>
       <c r="O7" s="2"/>
@@ -3366,7 +3362,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H8,params!$E:$E,0)),"")&amp;IF(AND($H8&lt;&gt;"",$I8&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I8,params!$E:$E,0)),"")&amp;IF(AND($I8&lt;&gt;"",$J8&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J8,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>456</v>
       </c>
       <c r="O8" s="2"/>
@@ -3418,10 +3414,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H9,params!$E:$E,0)),"")&amp;IF(AND($H9&lt;&gt;"",$I9&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I9,params!$E:$E,0)),"")&amp;IF(AND($I9&lt;&gt;"",$J9&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J9,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>457</v>
       </c>
       <c r="O9" s="2"/>
@@ -3471,7 +3467,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H10,params!$E:$E,0)),"")&amp;IF(AND($H10&lt;&gt;"",$I10&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I10,params!$E:$E,0)),"")&amp;IF(AND($I10&lt;&gt;"",$J10&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J10,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>458</v>
       </c>
       <c r="O10" s="2"/>
@@ -3523,7 +3519,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H11,params!$E:$E,0)),"")&amp;IF(AND($H11&lt;&gt;"",$I11&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I11,params!$E:$E,0)),"")&amp;IF(AND($I11&lt;&gt;"",$J11&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J11,params!$E:$E,0)),"")</f>
         <v>2</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="4" t="s">
         <v>459</v>
       </c>
       <c r="O11" s="2"/>
@@ -3578,7 +3574,7 @@
       <c r="L12" s="3">
         <v>2</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="4" t="s">
         <v>460</v>
       </c>
       <c r="O12" s="2"/>
@@ -3630,10 +3626,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H13,params!$E:$E,0)),"")&amp;IF(AND($H13&lt;&gt;"",$I13&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I13,params!$E:$E,0)),"")&amp;IF(AND($I13&lt;&gt;"",$J13&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J13,params!$E:$E,0)),"")</f>
         <v>8</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>461</v>
       </c>
       <c r="O13" s="2"/>
@@ -3685,7 +3681,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H14,params!$E:$E,0)),"")&amp;IF(AND($H14&lt;&gt;"",$I14&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I14,params!$E:$E,0)),"")&amp;IF(AND($I14&lt;&gt;"",$J14&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J14,params!$E:$E,0)),"")</f>
         <v>2</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="4" t="s">
         <v>462</v>
       </c>
       <c r="O14" s="2"/>
@@ -3735,10 +3731,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H15,params!$E:$E,0)),"")&amp;IF(AND($H15&lt;&gt;"",$I15&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I15,params!$E:$E,0)),"")&amp;IF(AND($I15&lt;&gt;"",$J15&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J15,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="4" t="s">
         <v>463</v>
       </c>
       <c r="O15" s="2"/>
@@ -3790,7 +3786,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H16,params!$E:$E,0)),"")&amp;IF(AND($H16&lt;&gt;"",$I16&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I16,params!$E:$E,0)),"")&amp;IF(AND($I16&lt;&gt;"",$J16&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J16,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="4" t="s">
         <v>464</v>
       </c>
       <c r="O16" s="2"/>
@@ -3845,7 +3841,7 @@
       <c r="L17" s="3">
         <v>1</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="4" t="s">
         <v>465</v>
       </c>
       <c r="O17" s="2"/>
@@ -3900,7 +3896,7 @@
       <c r="L18" s="3">
         <v>1</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="4" t="s">
         <v>466</v>
       </c>
       <c r="O18" s="2"/>
@@ -3952,7 +3948,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H19,params!$E:$E,0)),"")&amp;IF(AND($H19&lt;&gt;"",$I19&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I19,params!$E:$E,0)),"")&amp;IF(AND($I19&lt;&gt;"",$J19&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J19,params!$E:$E,0)),"")</f>
         <v>1,9,8</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="4" t="s">
         <v>467</v>
       </c>
       <c r="O19" s="2"/>
@@ -4004,10 +4000,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H20,params!$E:$E,0)),"")&amp;IF(AND($H20&lt;&gt;"",$I20&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I20,params!$E:$E,0)),"")&amp;IF(AND($I20&lt;&gt;"",$J20&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J20,params!$E:$E,0)),"")</f>
         <v>9</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="4" t="s">
         <v>468</v>
       </c>
       <c r="O20" s="2"/>
@@ -4059,7 +4055,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H21,params!$E:$E,0)),"")&amp;IF(AND($H21&lt;&gt;"",$I21&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I21,params!$E:$E,0)),"")&amp;IF(AND($I21&lt;&gt;"",$J21&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J21,params!$E:$E,0)),"")</f>
         <v>9</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="4" t="s">
         <v>469</v>
       </c>
       <c r="O21" s="2"/>
@@ -4109,7 +4105,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H22,params!$E:$E,0)),"")&amp;IF(AND($H22&lt;&gt;"",$I22&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I22,params!$E:$E,0)),"")&amp;IF(AND($I22&lt;&gt;"",$J22&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J22,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="4" t="s">
         <v>470</v>
       </c>
       <c r="O22" s="2"/>
@@ -4161,7 +4157,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H23,params!$E:$E,0)),"")&amp;IF(AND($H23&lt;&gt;"",$I23&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I23,params!$E:$E,0)),"")&amp;IF(AND($I23&lt;&gt;"",$J23&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J23,params!$E:$E,0)),"")</f>
         <v>3,1</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="4" t="s">
         <v>471</v>
       </c>
       <c r="O23" s="2"/>
@@ -4216,7 +4212,7 @@
       <c r="L24" s="3">
         <v>1</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="4" t="s">
         <v>472</v>
       </c>
       <c r="O24" s="2"/>
@@ -4268,7 +4264,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H25,params!$E:$E,0)),"")&amp;IF(AND($H25&lt;&gt;"",$I25&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I25,params!$E:$E,0)),"")&amp;IF(AND($I25&lt;&gt;"",$J25&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J25,params!$E:$E,0)),"")</f>
         <v>7,8</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="4" t="s">
         <v>473</v>
       </c>
       <c r="O25" s="2"/>
@@ -4320,7 +4316,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H26,params!$E:$E,0)),"")&amp;IF(AND($H26&lt;&gt;"",$I26&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I26,params!$E:$E,0)),"")&amp;IF(AND($I26&lt;&gt;"",$J26&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J26,params!$E:$E,0)),"")</f>
         <v>2</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="4" t="s">
         <v>474</v>
       </c>
       <c r="O26" s="2"/>
@@ -4372,7 +4368,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H27,params!$E:$E,0)),"")&amp;IF(AND($H27&lt;&gt;"",$I27&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I27,params!$E:$E,0)),"")&amp;IF(AND($I27&lt;&gt;"",$J27&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J27,params!$E:$E,0)),"")</f>
         <v>3,1</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="4" t="s">
         <v>475</v>
       </c>
       <c r="O27" s="2"/>
@@ -4424,10 +4420,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H28,params!$E:$E,0)),"")&amp;IF(AND($H28&lt;&gt;"",$I28&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I28,params!$E:$E,0)),"")&amp;IF(AND($I28&lt;&gt;"",$J28&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J28,params!$E:$E,0)),"")</f>
         <v>9</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="4" t="s">
         <v>476</v>
       </c>
       <c r="O28" s="2"/>
@@ -4479,7 +4475,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H29,params!$E:$E,0)),"")&amp;IF(AND($H29&lt;&gt;"",$I29&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I29,params!$E:$E,0)),"")&amp;IF(AND($I29&lt;&gt;"",$J29&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J29,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="4" t="s">
         <v>477</v>
       </c>
       <c r="O29" s="2"/>
@@ -4531,7 +4527,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H30,params!$E:$E,0)),"")&amp;IF(AND($H30&lt;&gt;"",$I30&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I30,params!$E:$E,0)),"")&amp;IF(AND($I30&lt;&gt;"",$J30&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J30,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="4" t="s">
         <v>478</v>
       </c>
       <c r="O30" s="2"/>
@@ -4583,10 +4579,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H31,params!$E:$E,0)),"")&amp;IF(AND($H31&lt;&gt;"",$I31&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I31,params!$E:$E,0)),"")&amp;IF(AND($I31&lt;&gt;"",$J31&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J31,params!$E:$E,0)),"")</f>
         <v>8</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="4" t="s">
         <v>479</v>
       </c>
       <c r="O31" s="2"/>
@@ -4638,10 +4634,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H32,params!$E:$E,0)),"")&amp;IF(AND($H32&lt;&gt;"",$I32&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I32,params!$E:$E,0)),"")&amp;IF(AND($I32&lt;&gt;"",$J32&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J32,params!$E:$E,0)),"")</f>
         <v>3,9</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="4" t="s">
         <v>480</v>
       </c>
       <c r="O32" s="2"/>
@@ -4693,10 +4689,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H33,params!$E:$E,0)),"")&amp;IF(AND($H33&lt;&gt;"",$I33&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I33,params!$E:$E,0)),"")&amp;IF(AND($I33&lt;&gt;"",$J33&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J33,params!$E:$E,0)),"")</f>
         <v>1,7</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="4" t="s">
         <v>481</v>
       </c>
       <c r="O33" s="2"/>
@@ -4751,10 +4747,10 @@
       <c r="L34" s="3">
         <v>1</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="4" t="s">
         <v>482</v>
       </c>
       <c r="O34" s="2"/>
@@ -4809,7 +4805,7 @@
       <c r="L35" s="3">
         <v>2</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="4" t="s">
         <v>483</v>
       </c>
       <c r="O35" s="2"/>
@@ -4861,7 +4857,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H36,params!$E:$E,0)),"")&amp;IF(AND($H36&lt;&gt;"",$I36&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I36,params!$E:$E,0)),"")&amp;IF(AND($I36&lt;&gt;"",$J36&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J36,params!$E:$E,0)),"")</f>
         <v>2,6</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="4" t="s">
         <v>484</v>
       </c>
       <c r="O36" s="2"/>
@@ -4913,7 +4909,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H37,params!$E:$E,0)),"")&amp;IF(AND($H37&lt;&gt;"",$I37&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I37,params!$E:$E,0)),"")&amp;IF(AND($I37&lt;&gt;"",$J37&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J37,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N37" s="4" t="s">
         <v>485</v>
       </c>
       <c r="O37" s="2"/>
@@ -4965,7 +4961,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H38,params!$E:$E,0)),"")&amp;IF(AND($H38&lt;&gt;"",$I38&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I38,params!$E:$E,0)),"")&amp;IF(AND($I38&lt;&gt;"",$J38&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J38,params!$E:$E,0)),"")</f>
         <v>5</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="4" t="s">
         <v>486</v>
       </c>
       <c r="O38" s="2"/>
@@ -5017,7 +5013,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H39,params!$E:$E,0)),"")&amp;IF(AND($H39&lt;&gt;"",$I39&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I39,params!$E:$E,0)),"")&amp;IF(AND($I39&lt;&gt;"",$J39&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J39,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="4" t="s">
         <v>487</v>
       </c>
       <c r="O39" s="2"/>
@@ -5069,10 +5065,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H40,params!$E:$E,0)),"")&amp;IF(AND($H40&lt;&gt;"",$I40&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I40,params!$E:$E,0)),"")&amp;IF(AND($I40&lt;&gt;"",$J40&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J40,params!$E:$E,0)),"")</f>
         <v>8</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="4" t="s">
         <v>488</v>
       </c>
       <c r="O40" s="2"/>
@@ -5127,7 +5123,7 @@
       <c r="L41" s="3">
         <v>2</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="4" t="s">
         <v>489</v>
       </c>
       <c r="O41" s="2"/>
@@ -5179,7 +5175,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H42,params!$E:$E,0)),"")&amp;IF(AND($H42&lt;&gt;"",$I42&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I42,params!$E:$E,0)),"")&amp;IF(AND($I42&lt;&gt;"",$J42&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J42,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="4" t="s">
         <v>490</v>
       </c>
       <c r="O42" s="2"/>
@@ -5231,7 +5227,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H43,params!$E:$E,0)),"")&amp;IF(AND($H43&lt;&gt;"",$I43&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I43,params!$E:$E,0)),"")&amp;IF(AND($I43&lt;&gt;"",$J43&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J43,params!$E:$E,0)),"")</f>
         <v>5</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="4" t="s">
         <v>491</v>
       </c>
       <c r="O43" s="2"/>
@@ -5283,7 +5279,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H44,params!$E:$E,0)),"")&amp;IF(AND($H44&lt;&gt;"",$I44&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I44,params!$E:$E,0)),"")&amp;IF(AND($I44&lt;&gt;"",$J44&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J44,params!$E:$E,0)),"")</f>
         <v>9</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="4" t="s">
         <v>492</v>
       </c>
       <c r="O44" s="2"/>
@@ -5338,7 +5334,7 @@
       <c r="L45" s="3">
         <v>1</v>
       </c>
-      <c r="N45" s="5" t="s">
+      <c r="N45" s="4" t="s">
         <v>493</v>
       </c>
       <c r="O45" s="2"/>
@@ -5390,7 +5386,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H46,params!$E:$E,0)),"")&amp;IF(AND($H46&lt;&gt;"",$I46&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I46,params!$E:$E,0)),"")&amp;IF(AND($I46&lt;&gt;"",$J46&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J46,params!$E:$E,0)),"")</f>
         <v>2</v>
       </c>
-      <c r="N46" s="5" t="s">
+      <c r="N46" s="4" t="s">
         <v>494</v>
       </c>
       <c r="O46" s="2"/>
@@ -5445,10 +5441,10 @@
       <c r="L47" s="3">
         <v>1</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="4" t="s">
         <v>495</v>
       </c>
       <c r="O47" s="2"/>
@@ -5503,7 +5499,7 @@
       <c r="L48" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="4" t="s">
         <v>496</v>
       </c>
       <c r="O48" s="2"/>
@@ -5553,7 +5549,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H49,params!$E:$E,0)),"")&amp;IF(AND($H49&lt;&gt;"",$I49&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I49,params!$E:$E,0)),"")&amp;IF(AND($I49&lt;&gt;"",$J49&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J49,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N49" s="5" t="s">
+      <c r="N49" s="4" t="s">
         <v>497</v>
       </c>
       <c r="O49" s="2"/>
@@ -5603,7 +5599,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H50,params!$E:$E,0)),"")&amp;IF(AND($H50&lt;&gt;"",$I50&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I50,params!$E:$E,0)),"")&amp;IF(AND($I50&lt;&gt;"",$J50&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J50,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="4" t="s">
         <v>498</v>
       </c>
       <c r="O50" s="2"/>
@@ -5655,10 +5651,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H51,params!$E:$E,0)),"")&amp;IF(AND($H51&lt;&gt;"",$I51&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I51,params!$E:$E,0)),"")&amp;IF(AND($I51&lt;&gt;"",$J51&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J51,params!$E:$E,0)),"")</f>
         <v>3,9</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="4" t="s">
         <v>499</v>
       </c>
       <c r="O51" s="2"/>
@@ -5710,7 +5706,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H52,params!$E:$E,0)),"")&amp;IF(AND($H52&lt;&gt;"",$I52&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I52,params!$E:$E,0)),"")&amp;IF(AND($I52&lt;&gt;"",$J52&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J52,params!$E:$E,0)),"")</f>
         <v>3,1</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="N52" s="4" t="s">
         <v>500</v>
       </c>
       <c r="O52" s="2"/>
@@ -5760,7 +5756,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H53,params!$E:$E,0)),"")&amp;IF(AND($H53&lt;&gt;"",$I53&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I53,params!$E:$E,0)),"")&amp;IF(AND($I53&lt;&gt;"",$J53&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J53,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="N53" s="4" t="s">
         <v>501</v>
       </c>
       <c r="O53" s="2"/>
@@ -5812,10 +5808,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H54,params!$E:$E,0)),"")&amp;IF(AND($H54&lt;&gt;"",$I54&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I54,params!$E:$E,0)),"")&amp;IF(AND($I54&lt;&gt;"",$J54&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J54,params!$E:$E,0)),"")</f>
         <v>8</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="N54" s="5" t="s">
+      <c r="N54" s="4" t="s">
         <v>502</v>
       </c>
       <c r="O54" s="2"/>
@@ -5867,7 +5863,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H55,params!$E:$E,0)),"")&amp;IF(AND($H55&lt;&gt;"",$I55&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I55,params!$E:$E,0)),"")&amp;IF(AND($I55&lt;&gt;"",$J55&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J55,params!$E:$E,0)),"")</f>
         <v>2,7</v>
       </c>
-      <c r="N55" s="5" t="s">
+      <c r="N55" s="4" t="s">
         <v>503</v>
       </c>
       <c r="O55" s="2"/>
@@ -5922,7 +5918,7 @@
       <c r="L56" s="3">
         <v>1</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="4" t="s">
         <v>504</v>
       </c>
       <c r="O56" s="2"/>
@@ -5974,7 +5970,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H57,params!$E:$E,0)),"")&amp;IF(AND($H57&lt;&gt;"",$I57&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I57,params!$E:$E,0)),"")&amp;IF(AND($I57&lt;&gt;"",$J57&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J57,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N57" s="5" t="s">
+      <c r="N57" s="4" t="s">
         <v>505</v>
       </c>
       <c r="O57" s="2"/>
@@ -6029,10 +6025,10 @@
       <c r="L58" s="3">
         <v>1</v>
       </c>
-      <c r="M58" s="5" t="s">
+      <c r="M58" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="N58" s="5" t="s">
+      <c r="N58" s="4" t="s">
         <v>506</v>
       </c>
       <c r="O58" s="2"/>
@@ -6084,7 +6080,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H59,params!$E:$E,0)),"")&amp;IF(AND($H59&lt;&gt;"",$I59&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I59,params!$E:$E,0)),"")&amp;IF(AND($I59&lt;&gt;"",$J59&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J59,params!$E:$E,0)),"")</f>
         <v>9</v>
       </c>
-      <c r="N59" s="5" t="s">
+      <c r="N59" s="4" t="s">
         <v>507</v>
       </c>
       <c r="O59" s="2"/>
@@ -6136,7 +6132,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H60,params!$E:$E,0)),"")&amp;IF(AND($H60&lt;&gt;"",$I60&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I60,params!$E:$E,0)),"")&amp;IF(AND($I60&lt;&gt;"",$J60&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J60,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N60" s="4" t="s">
         <v>508</v>
       </c>
       <c r="O60" s="2"/>
@@ -6191,7 +6187,7 @@
       <c r="L61" s="3">
         <v>2</v>
       </c>
-      <c r="N61" s="5" t="s">
+      <c r="N61" s="4" t="s">
         <v>509</v>
       </c>
       <c r="O61" s="2"/>
@@ -6246,7 +6242,7 @@
       <c r="L62" s="3">
         <v>1</v>
       </c>
-      <c r="N62" s="5" t="s">
+      <c r="N62" s="4" t="s">
         <v>510</v>
       </c>
       <c r="O62" s="2"/>
@@ -6301,7 +6297,7 @@
       <c r="L63" s="3">
         <v>2</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="4" t="s">
         <v>511</v>
       </c>
       <c r="O63" s="2"/>
@@ -6353,7 +6349,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H64,params!$E:$E,0)),"")&amp;IF(AND($H64&lt;&gt;"",$I64&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I64,params!$E:$E,0)),"")&amp;IF(AND($I64&lt;&gt;"",$J64&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J64,params!$E:$E,0)),"")</f>
         <v>2,6</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="4" t="s">
         <v>512</v>
       </c>
       <c r="O64" s="2"/>
@@ -6405,7 +6401,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H65,params!$E:$E,0)),"")&amp;IF(AND($H65&lt;&gt;"",$I65&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I65,params!$E:$E,0)),"")&amp;IF(AND($I65&lt;&gt;"",$J65&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J65,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N65" s="5" t="s">
+      <c r="N65" s="4" t="s">
         <v>513</v>
       </c>
       <c r="O65" s="2"/>
@@ -6455,10 +6451,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H66,params!$E:$E,0)),"")&amp;IF(AND($H66&lt;&gt;"",$I66&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I66,params!$E:$E,0)),"")&amp;IF(AND($I66&lt;&gt;"",$J66&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J66,params!$E:$E,0)),"")</f>
         <v>9,8,</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N66" s="4">
         <v>0</v>
       </c>
       <c r="O66" s="2"/>
@@ -6511,10 +6507,10 @@
       <c r="L67" s="3">
         <v>1</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="4" t="s">
         <v>514</v>
       </c>
       <c r="O67" s="2"/>
@@ -6564,10 +6560,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H68,params!$E:$E,0)),"")&amp;IF(AND($H68&lt;&gt;"",$I68&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I68,params!$E:$E,0)),"")&amp;IF(AND($I68&lt;&gt;"",$J68&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J68,params!$E:$E,0)),"")</f>
         <v>2,</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="4" t="s">
         <v>515</v>
       </c>
       <c r="O68" s="2"/>
@@ -6617,10 +6613,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H69,params!$E:$E,0)),"")&amp;IF(AND($H69&lt;&gt;"",$I69&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I69,params!$E:$E,0)),"")&amp;IF(AND($I69&lt;&gt;"",$J69&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J69,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N69" s="4">
         <v>0</v>
       </c>
       <c r="O69" s="2"/>
@@ -6670,7 +6666,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H70,params!$E:$E,0)),"")&amp;IF(AND($H70&lt;&gt;"",$I70&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I70,params!$E:$E,0)),"")&amp;IF(AND($I70&lt;&gt;"",$J70&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J70,params!$E:$E,0)),"")</f>
         <v>5,</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="4" t="s">
         <v>516</v>
       </c>
       <c r="O70" s="2"/>
@@ -6723,7 +6719,7 @@
       <c r="L71" s="3">
         <v>1</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="4" t="s">
         <v>517</v>
       </c>
       <c r="O71" s="2"/>
@@ -6773,7 +6769,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H72,params!$E:$E,0)),"")&amp;IF(AND($H72&lt;&gt;"",$I72&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I72,params!$E:$E,0)),"")&amp;IF(AND($I72&lt;&gt;"",$J72&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J72,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N72" s="5" t="s">
+      <c r="N72" s="4" t="s">
         <v>518</v>
       </c>
       <c r="O72" s="2"/>
@@ -6823,10 +6819,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H73,params!$E:$E,0)),"")&amp;IF(AND($H73&lt;&gt;"",$I73&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I73,params!$E:$E,0)),"")&amp;IF(AND($I73&lt;&gt;"",$J73&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J73,params!$E:$E,0)),"")</f>
         <v>1,6,</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="N73" s="5">
+      <c r="N73" s="4">
         <v>0</v>
       </c>
       <c r="O73" s="2"/>
@@ -6879,7 +6875,7 @@
       <c r="L74" s="3">
         <v>1</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="4" t="s">
         <v>519</v>
       </c>
       <c r="O74" s="2"/>
@@ -6932,7 +6928,7 @@
       <c r="L75" s="3">
         <v>-1</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="N75" s="4" t="s">
         <v>520</v>
       </c>
       <c r="O75" s="2"/>
@@ -6982,10 +6978,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H76,params!$E:$E,0)),"")&amp;IF(AND($H76&lt;&gt;"",$I76&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I76,params!$E:$E,0)),"")&amp;IF(AND($I76&lt;&gt;"",$J76&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J76,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="4" t="s">
         <v>514</v>
       </c>
       <c r="O76" s="2"/>
@@ -7035,7 +7031,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H77,params!$E:$E,0)),"")&amp;IF(AND($H77&lt;&gt;"",$I77&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I77,params!$E:$E,0)),"")&amp;IF(AND($I77&lt;&gt;"",$J77&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J77,params!$E:$E,0)),"")</f>
         <v>2,</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="4" t="s">
         <v>521</v>
       </c>
       <c r="O77" s="2"/>
@@ -7085,7 +7081,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H78,params!$E:$E,0)),"")&amp;IF(AND($H78&lt;&gt;"",$I78&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I78,params!$E:$E,0)),"")&amp;IF(AND($I78&lt;&gt;"",$J78&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J78,params!$E:$E,0)),"")</f>
         <v>2,</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="4" t="s">
         <v>522</v>
       </c>
       <c r="O78" s="2"/>
@@ -7135,7 +7131,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H79,params!$E:$E,0)),"")&amp;IF(AND($H79&lt;&gt;"",$I79&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I79,params!$E:$E,0)),"")&amp;IF(AND($I79&lt;&gt;"",$J79&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J79,params!$E:$E,0)),"")</f>
         <v>2,</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="4" t="s">
         <v>523</v>
       </c>
       <c r="O79" s="2"/>
@@ -7185,10 +7181,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H80,params!$E:$E,0)),"")&amp;IF(AND($H80&lt;&gt;"",$I80&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I80,params!$E:$E,0)),"")&amp;IF(AND($I80&lt;&gt;"",$J80&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J80,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="4" t="s">
         <v>514</v>
       </c>
       <c r="O80" s="2"/>
@@ -7238,7 +7234,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H81,params!$E:$E,0)),"")&amp;IF(AND($H81&lt;&gt;"",$I81&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I81,params!$E:$E,0)),"")&amp;IF(AND($I81&lt;&gt;"",$J81&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J81,params!$E:$E,0)),"")</f>
         <v>2,5,</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N81" s="4" t="s">
         <v>524</v>
       </c>
       <c r="O81" s="2"/>
@@ -7288,7 +7284,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H82,params!$E:$E,0)),"")&amp;IF(AND($H82&lt;&gt;"",$I82&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I82,params!$E:$E,0)),"")&amp;IF(AND($I82&lt;&gt;"",$J82&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J82,params!$E:$E,0)),"")</f>
         <v>2,5,</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="4" t="s">
         <v>525</v>
       </c>
       <c r="O82" s="2"/>
@@ -7338,10 +7334,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H83,params!$E:$E,0)),"")&amp;IF(AND($H83&lt;&gt;"",$I83&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I83,params!$E:$E,0)),"")&amp;IF(AND($I83&lt;&gt;"",$J83&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J83,params!$E:$E,0)),"")</f>
         <v>2,5,</v>
       </c>
-      <c r="M83" s="5" t="s">
+      <c r="M83" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="N83" s="5">
+      <c r="N83" s="4">
         <v>0</v>
       </c>
       <c r="O83" s="2"/>
@@ -7394,7 +7390,7 @@
       <c r="L84" s="3">
         <v>-1</v>
       </c>
-      <c r="N84" s="5" t="s">
+      <c r="N84" s="4" t="s">
         <v>526</v>
       </c>
       <c r="O84" s="2"/>
@@ -7444,10 +7440,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H85,params!$E:$E,0)),"")&amp;IF(AND($H85&lt;&gt;"",$I85&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I85,params!$E:$E,0)),"")&amp;IF(AND($I85&lt;&gt;"",$J85&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J85,params!$E:$E,0)),"")</f>
         <v>5,</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="M85" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="4" t="s">
         <v>527</v>
       </c>
       <c r="O85" s="2"/>
@@ -7497,7 +7493,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H86,params!$E:$E,0)),"")&amp;IF(AND($H86&lt;&gt;"",$I86&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I86,params!$E:$E,0)),"")&amp;IF(AND($I86&lt;&gt;"",$J86&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J86,params!$E:$E,0)),"")</f>
         <v>3,2,</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="4" t="s">
         <v>528</v>
       </c>
       <c r="O86" s="2"/>
@@ -7550,10 +7546,10 @@
       <c r="L87" s="3">
         <v>1</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="M87" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="N87" s="5" t="s">
+      <c r="N87" s="4" t="s">
         <v>523</v>
       </c>
       <c r="O87" s="2"/>
@@ -7603,7 +7599,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H88,params!$E:$E,0)),"")&amp;IF(AND($H88&lt;&gt;"",$I88&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I88,params!$E:$E,0)),"")&amp;IF(AND($I88&lt;&gt;"",$J88&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J88,params!$E:$E,0)),"")</f>
         <v>2,5,</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="4" t="s">
         <v>529</v>
       </c>
       <c r="O88" s="2"/>
@@ -7656,7 +7652,7 @@
       <c r="L89" s="3">
         <v>1</v>
       </c>
-      <c r="N89" s="5" t="s">
+      <c r="N89" s="4" t="s">
         <v>530</v>
       </c>
       <c r="O89" s="2"/>
@@ -7706,10 +7702,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H90,params!$E:$E,0)),"")&amp;IF(AND($H90&lt;&gt;"",$I90&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I90,params!$E:$E,0)),"")&amp;IF(AND($I90&lt;&gt;"",$J90&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J90,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="M90" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="4" t="s">
         <v>531</v>
       </c>
       <c r="O90" s="2"/>
@@ -7762,10 +7758,10 @@
       <c r="L91" s="3">
         <v>1</v>
       </c>
-      <c r="M91" s="5" t="s">
+      <c r="M91" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="N91" s="5" t="s">
+      <c r="N91" s="4" t="s">
         <v>532</v>
       </c>
       <c r="O91" s="2"/>
@@ -7815,7 +7811,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H92,params!$E:$E,0)),"")&amp;IF(AND($H92&lt;&gt;"",$I92&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I92,params!$E:$E,0)),"")&amp;IF(AND($I92&lt;&gt;"",$J92&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J92,params!$E:$E,0)),"")</f>
         <v>2,</v>
       </c>
-      <c r="N92" s="5" t="s">
+      <c r="N92" s="4" t="s">
         <v>533</v>
       </c>
       <c r="O92" s="2"/>
@@ -7865,10 +7861,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H93,params!$E:$E,0)),"")&amp;IF(AND($H93&lt;&gt;"",$I93&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I93,params!$E:$E,0)),"")&amp;IF(AND($I93&lt;&gt;"",$J93&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J93,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="N93" s="5" t="s">
+      <c r="N93" s="4" t="s">
         <v>514</v>
       </c>
       <c r="O93" s="2"/>
@@ -7918,7 +7914,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H94,params!$E:$E,0)),"")&amp;IF(AND($H94&lt;&gt;"",$I94&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I94,params!$E:$E,0)),"")&amp;IF(AND($I94&lt;&gt;"",$J94&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J94,params!$E:$E,0)),"")</f>
         <v>2,</v>
       </c>
-      <c r="N94" s="5" t="s">
+      <c r="N94" s="4" t="s">
         <v>534</v>
       </c>
       <c r="O94" s="2"/>
@@ -7971,10 +7967,10 @@
       <c r="L95" s="3">
         <v>1</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="M95" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="N95" s="5" t="s">
+      <c r="N95" s="4" t="s">
         <v>535</v>
       </c>
       <c r="O95" s="2"/>
@@ -8024,7 +8020,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H96,params!$E:$E,0)),"")&amp;IF(AND($H96&lt;&gt;"",$I96&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I96,params!$E:$E,0)),"")&amp;IF(AND($I96&lt;&gt;"",$J96&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J96,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N96" s="5" t="s">
+      <c r="N96" s="4" t="s">
         <v>536</v>
       </c>
       <c r="O96" s="2"/>
@@ -8074,7 +8070,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H97,params!$E:$E,0)),"")&amp;IF(AND($H97&lt;&gt;"",$I97&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I97,params!$E:$E,0)),"")&amp;IF(AND($I97&lt;&gt;"",$J97&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J97,params!$E:$E,0)),"")</f>
         <v>3,3,</v>
       </c>
-      <c r="N97" s="5" t="s">
+      <c r="N97" s="4" t="s">
         <v>537</v>
       </c>
       <c r="O97" s="2"/>
@@ -8124,7 +8120,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H98,params!$E:$E,0)),"")&amp;IF(AND($H98&lt;&gt;"",$I98&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I98,params!$E:$E,0)),"")&amp;IF(AND($I98&lt;&gt;"",$J98&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J98,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N98" s="5" t="s">
+      <c r="N98" s="4" t="s">
         <v>538</v>
       </c>
       <c r="O98" s="2"/>
@@ -8174,7 +8170,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H99,params!$E:$E,0)),"")&amp;IF(AND($H99&lt;&gt;"",$I99&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I99,params!$E:$E,0)),"")&amp;IF(AND($I99&lt;&gt;"",$J99&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J99,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N99" s="5" t="s">
+      <c r="N99" s="4" t="s">
         <v>514</v>
       </c>
       <c r="O99" s="2"/>
@@ -8227,7 +8223,7 @@
       <c r="L100" s="3">
         <v>1</v>
       </c>
-      <c r="N100" s="5" t="s">
+      <c r="N100" s="4" t="s">
         <v>539</v>
       </c>
       <c r="O100" s="2"/>
@@ -8280,7 +8276,7 @@
       <c r="L101" s="3">
         <v>2</v>
       </c>
-      <c r="N101" s="5" t="s">
+      <c r="N101" s="4" t="s">
         <v>540</v>
       </c>
       <c r="O101" s="2"/>
@@ -8333,7 +8329,7 @@
       <c r="L102" s="3">
         <v>1</v>
       </c>
-      <c r="N102" s="5" t="s">
+      <c r="N102" s="4" t="s">
         <v>541</v>
       </c>
       <c r="O102" s="2"/>
@@ -8383,7 +8379,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H103,params!$E:$E,0)),"")&amp;IF(AND($H103&lt;&gt;"",$I103&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I103,params!$E:$E,0)),"")&amp;IF(AND($I103&lt;&gt;"",$J103&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J103,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N103" s="5" t="s">
+      <c r="N103" s="4" t="s">
         <v>542</v>
       </c>
       <c r="O103" s="2"/>
@@ -8435,7 +8431,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H104,params!$E:$E,0)),"")&amp;IF(AND($H104&lt;&gt;"",$I104&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I104,params!$E:$E,0)),"")&amp;IF(AND($I104&lt;&gt;"",$J104&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J104,params!$E:$E,0)),"")</f>
         <v>1,5</v>
       </c>
-      <c r="N104" s="5" t="s">
+      <c r="N104" s="4" t="s">
         <v>543</v>
       </c>
       <c r="O104" s="2"/>
@@ -8487,7 +8483,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H105,params!$E:$E,0)),"")&amp;IF(AND($H105&lt;&gt;"",$I105&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I105,params!$E:$E,0)),"")&amp;IF(AND($I105&lt;&gt;"",$J105&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J105,params!$E:$E,0)),"")</f>
         <v>9,7</v>
       </c>
-      <c r="N105" s="5" t="s">
+      <c r="N105" s="4" t="s">
         <v>544</v>
       </c>
       <c r="O105" s="2"/>
@@ -8542,10 +8538,10 @@
       <c r="L106" s="3">
         <v>1</v>
       </c>
-      <c r="M106" s="5" t="s">
+      <c r="M106" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="N106" s="5" t="s">
+      <c r="N106" s="4" t="s">
         <v>545</v>
       </c>
       <c r="O106" s="2"/>
@@ -8597,10 +8593,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H107,params!$E:$E,0)),"")&amp;IF(AND($H107&lt;&gt;"",$I107&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I107,params!$E:$E,0)),"")&amp;IF(AND($I107&lt;&gt;"",$J107&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J107,params!$E:$E,0)),"")</f>
         <v>5</v>
       </c>
-      <c r="M107" s="5" t="s">
+      <c r="M107" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="N107" s="5" t="s">
+      <c r="N107" s="4" t="s">
         <v>546</v>
       </c>
       <c r="O107" s="2"/>
@@ -8655,10 +8651,10 @@
       <c r="L108" s="3">
         <v>1</v>
       </c>
-      <c r="M108" s="5" t="s">
+      <c r="M108" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="N108" s="5" t="s">
+      <c r="N108" s="4" t="s">
         <v>547</v>
       </c>
       <c r="O108" s="2"/>
@@ -8710,10 +8706,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H109,params!$E:$E,0)),"")&amp;IF(AND($H109&lt;&gt;"",$I109&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I109,params!$E:$E,0)),"")&amp;IF(AND($I109&lt;&gt;"",$J109&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J109,params!$E:$E,0)),"")</f>
         <v>9</v>
       </c>
-      <c r="M109" s="5" t="s">
+      <c r="M109" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="N109" s="5" t="s">
+      <c r="N109" s="4" t="s">
         <v>544</v>
       </c>
       <c r="O109" s="2"/>
@@ -8768,7 +8764,7 @@
       <c r="L110" s="3">
         <v>1</v>
       </c>
-      <c r="N110" s="5" t="s">
+      <c r="N110" s="4" t="s">
         <v>548</v>
       </c>
       <c r="O110" s="2"/>
@@ -8820,7 +8816,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H111,params!$E:$E,0)),"")&amp;IF(AND($H111&lt;&gt;"",$I111&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I111,params!$E:$E,0)),"")&amp;IF(AND($I111&lt;&gt;"",$J111&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J111,params!$E:$E,0)),"")</f>
         <v>2,6</v>
       </c>
-      <c r="N111" s="5" t="s">
+      <c r="N111" s="4" t="s">
         <v>549</v>
       </c>
       <c r="O111" s="2"/>
@@ -8870,7 +8866,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H112,params!$E:$E,0)),"")&amp;IF(AND($H112&lt;&gt;"",$I112&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I112,params!$E:$E,0)),"")&amp;IF(AND($I112&lt;&gt;"",$J112&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J112,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N112" s="5" t="s">
+      <c r="N112" s="4" t="s">
         <v>550</v>
       </c>
       <c r="O112" s="2"/>
@@ -8922,7 +8918,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H113,params!$E:$E,0)),"")&amp;IF(AND($H113&lt;&gt;"",$I113&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I113,params!$E:$E,0)),"")&amp;IF(AND($I113&lt;&gt;"",$J113&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J113,params!$E:$E,0)),"")</f>
         <v>2</v>
       </c>
-      <c r="N113" s="5" t="s">
+      <c r="N113" s="4" t="s">
         <v>551</v>
       </c>
       <c r="O113" s="2"/>
@@ -8977,7 +8973,7 @@
       <c r="L114" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="N114" s="5" t="s">
+      <c r="N114" s="4" t="s">
         <v>552</v>
       </c>
       <c r="O114" s="2"/>
@@ -9029,7 +9025,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H115,params!$E:$E,0)),"")&amp;IF(AND($H115&lt;&gt;"",$I115&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I115,params!$E:$E,0)),"")&amp;IF(AND($I115&lt;&gt;"",$J115&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J115,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N115" s="5" t="s">
+      <c r="N115" s="4" t="s">
         <v>553</v>
       </c>
       <c r="O115" s="2"/>
@@ -9081,10 +9077,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H116,params!$E:$E,0)),"")&amp;IF(AND($H116&lt;&gt;"",$I116&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I116,params!$E:$E,0)),"")&amp;IF(AND($I116&lt;&gt;"",$J116&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J116,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="M116" s="5" t="s">
+      <c r="M116" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="N116" s="5" t="e">
+      <c r="N116" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O116" s="2"/>
@@ -9139,10 +9135,10 @@
       <c r="L117" s="3">
         <v>1</v>
       </c>
-      <c r="M117" s="5" t="s">
+      <c r="M117" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="N117" s="5" t="s">
+      <c r="N117" s="4" t="s">
         <v>554</v>
       </c>
       <c r="O117" s="2"/>
@@ -9194,10 +9190,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H118,params!$E:$E,0)),"")&amp;IF(AND($H118&lt;&gt;"",$I118&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I118,params!$E:$E,0)),"")&amp;IF(AND($I118&lt;&gt;"",$J118&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J118,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="N118" s="5" t="s">
+      <c r="N118" s="4" t="s">
         <v>555</v>
       </c>
       <c r="O118" s="2"/>
@@ -9249,7 +9245,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H119,params!$E:$E,0)),"")&amp;IF(AND($H119&lt;&gt;"",$I119&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I119,params!$E:$E,0)),"")&amp;IF(AND($I119&lt;&gt;"",$J119&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J119,params!$E:$E,0)),"")</f>
         <v>2,4</v>
       </c>
-      <c r="N119" s="5" t="s">
+      <c r="N119" s="4" t="s">
         <v>556</v>
       </c>
       <c r="O119" s="2"/>
@@ -9301,7 +9297,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H120,params!$E:$E,0)),"")&amp;IF(AND($H120&lt;&gt;"",$I120&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I120,params!$E:$E,0)),"")&amp;IF(AND($I120&lt;&gt;"",$J120&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J120,params!$E:$E,0)),"")</f>
         <v>5</v>
       </c>
-      <c r="N120" s="5" t="s">
+      <c r="N120" s="4" t="s">
         <v>557</v>
       </c>
       <c r="O120" s="2"/>
@@ -9353,10 +9349,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H121,params!$E:$E,0)),"")&amp;IF(AND($H121&lt;&gt;"",$I121&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I121,params!$E:$E,0)),"")&amp;IF(AND($I121&lt;&gt;"",$J121&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J121,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="M121" s="5" t="s">
+      <c r="M121" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="N121" s="5" t="s">
+      <c r="N121" s="4" t="s">
         <v>558</v>
       </c>
       <c r="O121" s="2"/>
@@ -9408,10 +9404,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H122,params!$E:$E,0)),"")&amp;IF(AND($H122&lt;&gt;"",$I122&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I122,params!$E:$E,0)),"")&amp;IF(AND($I122&lt;&gt;"",$J122&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J122,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="M122" s="5" t="s">
+      <c r="M122" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="N122" s="5" t="s">
+      <c r="N122" s="4" t="s">
         <v>559</v>
       </c>
       <c r="O122" s="2"/>
@@ -9463,7 +9459,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H123,params!$E:$E,0)),"")&amp;IF(AND($H123&lt;&gt;"",$I123&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I123,params!$E:$E,0)),"")&amp;IF(AND($I123&lt;&gt;"",$J123&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J123,params!$E:$E,0)),"")</f>
         <v>1,2,6</v>
       </c>
-      <c r="N123" s="5" t="s">
+      <c r="N123" s="4" t="s">
         <v>543</v>
       </c>
       <c r="O123" s="2"/>
@@ -9515,7 +9511,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H124,params!$E:$E,0)),"")&amp;IF(AND($H124&lt;&gt;"",$I124&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I124,params!$E:$E,0)),"")&amp;IF(AND($I124&lt;&gt;"",$J124&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J124,params!$E:$E,0)),"")</f>
         <v>5</v>
       </c>
-      <c r="N124" s="5" t="s">
+      <c r="N124" s="4" t="s">
         <v>560</v>
       </c>
       <c r="O124" s="2"/>
@@ -9567,7 +9563,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H125,params!$E:$E,0)),"")&amp;IF(AND($H125&lt;&gt;"",$I125&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I125,params!$E:$E,0)),"")&amp;IF(AND($I125&lt;&gt;"",$J125&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J125,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N125" s="5" t="s">
+      <c r="N125" s="4" t="s">
         <v>561</v>
       </c>
       <c r="O125" s="2"/>
@@ -9619,7 +9615,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H126,params!$E:$E,0)),"")&amp;IF(AND($H126&lt;&gt;"",$I126&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I126,params!$E:$E,0)),"")&amp;IF(AND($I126&lt;&gt;"",$J126&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J126,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N126" s="5" t="s">
+      <c r="N126" s="4" t="s">
         <v>562</v>
       </c>
       <c r="O126" s="2"/>
@@ -9671,7 +9667,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H127,params!$E:$E,0)),"")&amp;IF(AND($H127&lt;&gt;"",$I127&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I127,params!$E:$E,0)),"")&amp;IF(AND($I127&lt;&gt;"",$J127&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J127,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N127" s="5" t="s">
+      <c r="N127" s="4" t="s">
         <v>563</v>
       </c>
       <c r="O127" s="2"/>
@@ -9723,10 +9719,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H128,params!$E:$E,0)),"")&amp;IF(AND($H128&lt;&gt;"",$I128&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I128,params!$E:$E,0)),"")&amp;IF(AND($I128&lt;&gt;"",$J128&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J128,params!$E:$E,0)),"")</f>
         <v>3,9</v>
       </c>
-      <c r="M128" s="5" t="s">
+      <c r="M128" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="N128" s="5" t="s">
+      <c r="N128" s="4" t="s">
         <v>547</v>
       </c>
       <c r="O128" s="2"/>
@@ -9778,7 +9774,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H129,params!$E:$E,0)),"")&amp;IF(AND($H129&lt;&gt;"",$I129&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I129,params!$E:$E,0)),"")&amp;IF(AND($I129&lt;&gt;"",$J129&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J129,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="N129" s="5" t="s">
+      <c r="N129" s="4" t="s">
         <v>564</v>
       </c>
       <c r="O129" s="2"/>
@@ -9828,10 +9824,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H130,params!$E:$E,0)),"")&amp;IF(AND($H130&lt;&gt;"",$I130&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I130,params!$E:$E,0)),"")&amp;IF(AND($I130&lt;&gt;"",$J130&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J130,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M130" s="5" t="s">
+      <c r="M130" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="N130" s="5" t="s">
+      <c r="N130" s="4" t="s">
         <v>565</v>
       </c>
       <c r="O130" s="2"/>
@@ -9883,7 +9879,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H131,params!$E:$E,0)),"")&amp;IF(AND($H131&lt;&gt;"",$I131&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I131,params!$E:$E,0)),"")&amp;IF(AND($I131&lt;&gt;"",$J131&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J131,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N131" s="5" t="s">
+      <c r="N131" s="4" t="s">
         <v>566</v>
       </c>
       <c r="O131" s="2"/>
@@ -9935,10 +9931,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H132,params!$E:$E,0)),"")&amp;IF(AND($H132&lt;&gt;"",$I132&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I132,params!$E:$E,0)),"")&amp;IF(AND($I132&lt;&gt;"",$J132&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J132,params!$E:$E,0)),"")</f>
         <v>4</v>
       </c>
-      <c r="M132" s="5" t="s">
+      <c r="M132" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N132" s="4" t="s">
         <v>567</v>
       </c>
       <c r="O132" s="2"/>
@@ -9990,10 +9986,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H133,params!$E:$E,0)),"")&amp;IF(AND($H133&lt;&gt;"",$I133&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I133,params!$E:$E,0)),"")&amp;IF(AND($I133&lt;&gt;"",$J133&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J133,params!$E:$E,0)),"")</f>
         <v>1,7</v>
       </c>
-      <c r="M133" s="5" t="s">
+      <c r="M133" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="N133" s="5" t="s">
+      <c r="N133" s="4" t="s">
         <v>568</v>
       </c>
       <c r="O133" s="2"/>
@@ -10045,10 +10041,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H134,params!$E:$E,0)),"")&amp;IF(AND($H134&lt;&gt;"",$I134&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I134,params!$E:$E,0)),"")&amp;IF(AND($I134&lt;&gt;"",$J134&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J134,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="M134" s="5" t="s">
+      <c r="M134" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="N134" s="5" t="s">
+      <c r="N134" s="4" t="s">
         <v>569</v>
       </c>
       <c r="O134" s="2"/>
@@ -10100,10 +10096,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H135,params!$E:$E,0)),"")&amp;IF(AND($H135&lt;&gt;"",$I135&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I135,params!$E:$E,0)),"")&amp;IF(AND($I135&lt;&gt;"",$J135&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J135,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="M135" s="5" t="s">
+      <c r="M135" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="N135" s="5" t="s">
+      <c r="N135" s="4" t="s">
         <v>562</v>
       </c>
       <c r="O135" s="2"/>
@@ -10155,10 +10151,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H136,params!$E:$E,0)),"")&amp;IF(AND($H136&lt;&gt;"",$I136&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I136,params!$E:$E,0)),"")&amp;IF(AND($I136&lt;&gt;"",$J136&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J136,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="M136" s="5" t="s">
+      <c r="M136" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="N136" s="5" t="s">
+      <c r="N136" s="4" t="s">
         <v>570</v>
       </c>
       <c r="O136" s="2"/>
@@ -10210,10 +10206,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H137,params!$E:$E,0)),"")&amp;IF(AND($H137&lt;&gt;"",$I137&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I137,params!$E:$E,0)),"")&amp;IF(AND($I137&lt;&gt;"",$J137&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J137,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="M137" s="5" t="s">
+      <c r="M137" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="N137" s="5" t="s">
+      <c r="N137" s="4" t="s">
         <v>571</v>
       </c>
       <c r="O137" s="2"/>
@@ -10265,10 +10261,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H138,params!$E:$E,0)),"")&amp;IF(AND($H138&lt;&gt;"",$I138&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I138,params!$E:$E,0)),"")&amp;IF(AND($I138&lt;&gt;"",$J138&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J138,params!$E:$E,0)),"")</f>
         <v>3,1,4</v>
       </c>
-      <c r="M138" s="5" t="s">
+      <c r="M138" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="N138" s="5" t="s">
+      <c r="N138" s="4" t="s">
         <v>543</v>
       </c>
       <c r="O138" s="2"/>
@@ -10320,7 +10316,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H139,params!$E:$E,0)),"")&amp;IF(AND($H139&lt;&gt;"",$I139&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I139,params!$E:$E,0)),"")&amp;IF(AND($I139&lt;&gt;"",$J139&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J139,params!$E:$E,0)),"")</f>
         <v>2,6</v>
       </c>
-      <c r="N139" s="5" t="s">
+      <c r="N139" s="4" t="s">
         <v>549</v>
       </c>
       <c r="O139" s="2"/>
@@ -10372,10 +10368,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H140,params!$E:$E,0)),"")&amp;IF(AND($H140&lt;&gt;"",$I140&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I140,params!$E:$E,0)),"")&amp;IF(AND($I140&lt;&gt;"",$J140&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J140,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="M140" s="5" t="s">
+      <c r="M140" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="N140" s="5" t="s">
+      <c r="N140" s="4" t="s">
         <v>572</v>
       </c>
       <c r="O140" s="2"/>
@@ -10427,7 +10423,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H141,params!$E:$E,0)),"")&amp;IF(AND($H141&lt;&gt;"",$I141&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I141,params!$E:$E,0)),"")&amp;IF(AND($I141&lt;&gt;"",$J141&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J141,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N141" s="5" t="s">
+      <c r="N141" s="4" t="s">
         <v>571</v>
       </c>
       <c r="O141" s="2"/>
@@ -10479,7 +10475,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H142,params!$E:$E,0)),"")&amp;IF(AND($H142&lt;&gt;"",$I142&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I142,params!$E:$E,0)),"")&amp;IF(AND($I142&lt;&gt;"",$J142&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J142,params!$E:$E,0)),"")</f>
         <v>2,4</v>
       </c>
-      <c r="N142" s="5" t="s">
+      <c r="N142" s="4" t="s">
         <v>561</v>
       </c>
       <c r="O142" s="2"/>
@@ -10531,10 +10527,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H143,params!$E:$E,0)),"")&amp;IF(AND($H143&lt;&gt;"",$I143&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I143,params!$E:$E,0)),"")&amp;IF(AND($I143&lt;&gt;"",$J143&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J143,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="M143" s="5" t="s">
+      <c r="M143" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="N143" s="5" t="s">
+      <c r="N143" s="4" t="s">
         <v>573</v>
       </c>
       <c r="O143" s="2"/>
@@ -10586,10 +10582,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H144,params!$E:$E,0)),"")&amp;IF(AND($H144&lt;&gt;"",$I144&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I144,params!$E:$E,0)),"")&amp;IF(AND($I144&lt;&gt;"",$J144&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J144,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="M144" s="5" t="s">
+      <c r="M144" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="N144" s="5" t="s">
+      <c r="N144" s="4" t="s">
         <v>571</v>
       </c>
       <c r="O144" s="2"/>
@@ -10639,7 +10635,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H145,params!$E:$E,0)),"")&amp;IF(AND($H145&lt;&gt;"",$I145&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I145,params!$E:$E,0)),"")&amp;IF(AND($I145&lt;&gt;"",$J145&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J145,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N145" s="5" t="s">
+      <c r="N145" s="4" t="s">
         <v>565</v>
       </c>
       <c r="O145" s="2"/>
@@ -10691,7 +10687,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H146,params!$E:$E,0)),"")&amp;IF(AND($H146&lt;&gt;"",$I146&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I146,params!$E:$E,0)),"")&amp;IF(AND($I146&lt;&gt;"",$J146&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J146,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="N146" s="5" t="s">
+      <c r="N146" s="4" t="s">
         <v>574</v>
       </c>
       <c r="O146" s="2"/>
@@ -10743,7 +10739,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H147,params!$E:$E,0)),"")&amp;IF(AND($H147&lt;&gt;"",$I147&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I147,params!$E:$E,0)),"")&amp;IF(AND($I147&lt;&gt;"",$J147&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J147,params!$E:$E,0)),"")</f>
         <v>2,5</v>
       </c>
-      <c r="N147" s="5" t="s">
+      <c r="N147" s="4" t="s">
         <v>575</v>
       </c>
       <c r="O147" s="2"/>
@@ -10795,7 +10791,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H148,params!$E:$E,0)),"")&amp;IF(AND($H148&lt;&gt;"",$I148&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I148,params!$E:$E,0)),"")&amp;IF(AND($I148&lt;&gt;"",$J148&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J148,params!$E:$E,0)),"")</f>
         <v>2,5</v>
       </c>
-      <c r="N148" s="5" t="s">
+      <c r="N148" s="4" t="s">
         <v>571</v>
       </c>
       <c r="O148" s="2"/>
@@ -10847,7 +10843,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H149,params!$E:$E,0)),"")&amp;IF(AND($H149&lt;&gt;"",$I149&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I149,params!$E:$E,0)),"")&amp;IF(AND($I149&lt;&gt;"",$J149&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J149,params!$E:$E,0)),"")</f>
         <v>5</v>
       </c>
-      <c r="N149" s="5" t="s">
+      <c r="N149" s="4" t="s">
         <v>576</v>
       </c>
       <c r="O149" s="2"/>
@@ -10899,7 +10895,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H150,params!$E:$E,0)),"")&amp;IF(AND($H150&lt;&gt;"",$I150&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I150,params!$E:$E,0)),"")&amp;IF(AND($I150&lt;&gt;"",$J150&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J150,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N150" s="5" t="s">
+      <c r="N150" s="4" t="s">
         <v>577</v>
       </c>
       <c r="O150" s="2"/>
@@ -10951,7 +10947,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H151,params!$E:$E,0)),"")&amp;IF(AND($H151&lt;&gt;"",$I151&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I151,params!$E:$E,0)),"")&amp;IF(AND($I151&lt;&gt;"",$J151&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J151,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N151" s="5" t="s">
+      <c r="N151" s="4" t="s">
         <v>578</v>
       </c>
       <c r="O151" s="2"/>
@@ -11003,7 +10999,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H152,params!$E:$E,0)),"")&amp;IF(AND($H152&lt;&gt;"",$I152&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I152,params!$E:$E,0)),"")&amp;IF(AND($I152&lt;&gt;"",$J152&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J152,params!$E:$E,0)),"")</f>
         <v>1,9</v>
       </c>
-      <c r="N152" s="5" t="s">
+      <c r="N152" s="4" t="s">
         <v>579</v>
       </c>
       <c r="O152" s="2"/>
@@ -11055,7 +11051,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H153,params!$E:$E,0)),"")&amp;IF(AND($H153&lt;&gt;"",$I153&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I153,params!$E:$E,0)),"")&amp;IF(AND($I153&lt;&gt;"",$J153&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J153,params!$E:$E,0)),"")</f>
         <v>9</v>
       </c>
-      <c r="N153" s="5" t="s">
+      <c r="N153" s="4" t="s">
         <v>580</v>
       </c>
       <c r="O153" s="2"/>
@@ -11107,7 +11103,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H154,params!$E:$E,0)),"")&amp;IF(AND($H154&lt;&gt;"",$I154&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I154,params!$E:$E,0)),"")&amp;IF(AND($I154&lt;&gt;"",$J154&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J154,params!$E:$E,0)),"")</f>
         <v>1,2,6</v>
       </c>
-      <c r="N154" s="5" t="s">
+      <c r="N154" s="4" t="s">
         <v>581</v>
       </c>
       <c r="O154" s="2"/>
@@ -11157,10 +11153,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H155,params!$E:$E,0)),"")&amp;IF(AND($H155&lt;&gt;"",$I155&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I155,params!$E:$E,0)),"")&amp;IF(AND($I155&lt;&gt;"",$J155&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J155,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M155" s="5" t="s">
+      <c r="M155" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="N155" s="5" t="s">
+      <c r="N155" s="4" t="s">
         <v>582</v>
       </c>
       <c r="O155" s="2"/>
@@ -11212,7 +11208,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H156,params!$E:$E,0)),"")&amp;IF(AND($H156&lt;&gt;"",$I156&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I156,params!$E:$E,0)),"")&amp;IF(AND($I156&lt;&gt;"",$J156&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J156,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="N156" s="5" t="s">
+      <c r="N156" s="4" t="s">
         <v>544</v>
       </c>
       <c r="O156" s="2"/>
@@ -11264,7 +11260,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H157,params!$E:$E,0)),"")&amp;IF(AND($H157&lt;&gt;"",$I157&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I157,params!$E:$E,0)),"")&amp;IF(AND($I157&lt;&gt;"",$J157&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J157,params!$E:$E,0)),"")</f>
         <v>3,4</v>
       </c>
-      <c r="N157" s="5" t="s">
+      <c r="N157" s="4" t="s">
         <v>583</v>
       </c>
       <c r="O157" s="2"/>
@@ -11316,10 +11312,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H158,params!$E:$E,0)),"")&amp;IF(AND($H158&lt;&gt;"",$I158&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I158,params!$E:$E,0)),"")&amp;IF(AND($I158&lt;&gt;"",$J158&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J158,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="M158" s="5" t="s">
+      <c r="M158" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="N158" s="5" t="s">
+      <c r="N158" s="4" t="s">
         <v>584</v>
       </c>
       <c r="O158" s="2"/>
@@ -11371,10 +11367,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H159,params!$E:$E,0)),"")&amp;IF(AND($H159&lt;&gt;"",$I159&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I159,params!$E:$E,0)),"")&amp;IF(AND($I159&lt;&gt;"",$J159&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J159,params!$E:$E,0)),"")</f>
         <v>5,4</v>
       </c>
-      <c r="M159" s="5" t="s">
+      <c r="M159" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="N159" s="5" t="s">
+      <c r="N159" s="4" t="s">
         <v>585</v>
       </c>
       <c r="O159" s="2"/>
@@ -11426,10 +11422,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H160,params!$E:$E,0)),"")&amp;IF(AND($H160&lt;&gt;"",$I160&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I160,params!$E:$E,0)),"")&amp;IF(AND($I160&lt;&gt;"",$J160&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J160,params!$E:$E,0)),"")</f>
         <v>3,1,4</v>
       </c>
-      <c r="M160" s="5" t="s">
+      <c r="M160" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N160" s="4" t="s">
         <v>586</v>
       </c>
       <c r="O160" s="2"/>
@@ -11481,7 +11477,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H161,params!$E:$E,0)),"")&amp;IF(AND($H161&lt;&gt;"",$I161&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I161,params!$E:$E,0)),"")&amp;IF(AND($I161&lt;&gt;"",$J161&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J161,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N161" s="5" t="s">
+      <c r="N161" s="4" t="s">
         <v>587</v>
       </c>
       <c r="O161" s="2"/>
@@ -11533,10 +11529,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H162,params!$E:$E,0)),"")&amp;IF(AND($H162&lt;&gt;"",$I162&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I162,params!$E:$E,0)),"")&amp;IF(AND($I162&lt;&gt;"",$J162&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J162,params!$E:$E,0)),"")</f>
         <v>2,6</v>
       </c>
-      <c r="M162" s="5" t="s">
+      <c r="M162" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="N162" s="5" t="s">
+      <c r="N162" s="4" t="s">
         <v>588</v>
       </c>
       <c r="O162" s="2"/>
@@ -11588,7 +11584,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H163,params!$E:$E,0)),"")&amp;IF(AND($H163&lt;&gt;"",$I163&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I163,params!$E:$E,0)),"")&amp;IF(AND($I163&lt;&gt;"",$J163&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J163,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N163" s="4" t="s">
         <v>589</v>
       </c>
       <c r="O163" s="2"/>
@@ -11640,7 +11636,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H164,params!$E:$E,0)),"")&amp;IF(AND($H164&lt;&gt;"",$I164&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I164,params!$E:$E,0)),"")&amp;IF(AND($I164&lt;&gt;"",$J164&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J164,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N164" s="5" t="s">
+      <c r="N164" s="4" t="s">
         <v>590</v>
       </c>
       <c r="O164" s="2"/>
@@ -11692,7 +11688,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H165,params!$E:$E,0)),"")&amp;IF(AND($H165&lt;&gt;"",$I165&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I165,params!$E:$E,0)),"")&amp;IF(AND($I165&lt;&gt;"",$J165&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J165,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N165" s="5" t="s">
+      <c r="N165" s="4" t="s">
         <v>558</v>
       </c>
       <c r="O165" s="2"/>
@@ -11744,7 +11740,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H166,params!$E:$E,0)),"")&amp;IF(AND($H166&lt;&gt;"",$I166&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I166,params!$E:$E,0)),"")&amp;IF(AND($I166&lt;&gt;"",$J166&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J166,params!$E:$E,0)),"")</f>
         <v>2,5,6</v>
       </c>
-      <c r="N166" s="5" t="s">
+      <c r="N166" s="4" t="s">
         <v>560</v>
       </c>
       <c r="O166" s="2"/>
@@ -11796,7 +11792,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H167,params!$E:$E,0)),"")&amp;IF(AND($H167&lt;&gt;"",$I167&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I167,params!$E:$E,0)),"")&amp;IF(AND($I167&lt;&gt;"",$J167&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J167,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N167" s="5" t="s">
+      <c r="N167" s="4" t="s">
         <v>585</v>
       </c>
       <c r="O167" s="2"/>
@@ -11846,10 +11842,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H168,params!$E:$E,0)),"")&amp;IF(AND($H168&lt;&gt;"",$I168&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I168,params!$E:$E,0)),"")&amp;IF(AND($I168&lt;&gt;"",$J168&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J168,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M168" s="5" t="s">
+      <c r="M168" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="N168" s="5" t="s">
+      <c r="N168" s="4" t="s">
         <v>547</v>
       </c>
       <c r="O168" s="2"/>
@@ -11901,10 +11897,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H169,params!$E:$E,0)),"")&amp;IF(AND($H169&lt;&gt;"",$I169&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I169,params!$E:$E,0)),"")&amp;IF(AND($I169&lt;&gt;"",$J169&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J169,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="M169" s="5" t="s">
+      <c r="M169" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="N169" s="5" t="s">
+      <c r="N169" s="4" t="s">
         <v>544</v>
       </c>
       <c r="O169" s="2"/>
@@ -11956,10 +11952,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H170,params!$E:$E,0)),"")&amp;IF(AND($H170&lt;&gt;"",$I170&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I170,params!$E:$E,0)),"")&amp;IF(AND($I170&lt;&gt;"",$J170&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J170,params!$E:$E,0)),"")</f>
         <v>3,1</v>
       </c>
-      <c r="M170" s="5" t="s">
+      <c r="M170" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="N170" s="5" t="s">
+      <c r="N170" s="4" t="s">
         <v>572</v>
       </c>
       <c r="O170" s="2"/>
@@ -12011,7 +12007,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H171,params!$E:$E,0)),"")&amp;IF(AND($H171&lt;&gt;"",$I171&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I171,params!$E:$E,0)),"")&amp;IF(AND($I171&lt;&gt;"",$J171&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J171,params!$E:$E,0)),"")</f>
         <v>7,4</v>
       </c>
-      <c r="N171" s="5" t="s">
+      <c r="N171" s="4" t="s">
         <v>591</v>
       </c>
       <c r="O171" s="2"/>
@@ -12063,7 +12059,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H172,params!$E:$E,0)),"")&amp;IF(AND($H172&lt;&gt;"",$I172&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I172,params!$E:$E,0)),"")&amp;IF(AND($I172&lt;&gt;"",$J172&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J172,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="N172" s="5" t="s">
+      <c r="N172" s="4" t="s">
         <v>547</v>
       </c>
       <c r="O172" s="2"/>
@@ -12115,10 +12111,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H173,params!$E:$E,0)),"")&amp;IF(AND($H173&lt;&gt;"",$I173&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I173,params!$E:$E,0)),"")&amp;IF(AND($I173&lt;&gt;"",$J173&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J173,params!$E:$E,0)),"")</f>
         <v>1,7</v>
       </c>
-      <c r="M173" s="5" t="s">
+      <c r="M173" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="N173" s="5" t="s">
+      <c r="N173" s="4" t="s">
         <v>592</v>
       </c>
       <c r="O173" s="2"/>
@@ -12170,7 +12166,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H174,params!$E:$E,0)),"")&amp;IF(AND($H174&lt;&gt;"",$I174&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I174,params!$E:$E,0)),"")&amp;IF(AND($I174&lt;&gt;"",$J174&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J174,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N174" s="5" t="s">
+      <c r="N174" s="4" t="s">
         <v>593</v>
       </c>
       <c r="O174" s="2"/>
@@ -12222,7 +12218,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H175,params!$E:$E,0)),"")&amp;IF(AND($H175&lt;&gt;"",$I175&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I175,params!$E:$E,0)),"")&amp;IF(AND($I175&lt;&gt;"",$J175&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J175,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N175" s="5" t="s">
+      <c r="N175" s="4" t="s">
         <v>594</v>
       </c>
       <c r="O175" s="2"/>
@@ -12274,7 +12270,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H176,params!$E:$E,0)),"")&amp;IF(AND($H176&lt;&gt;"",$I176&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I176,params!$E:$E,0)),"")&amp;IF(AND($I176&lt;&gt;"",$J176&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J176,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N176" s="5" t="s">
+      <c r="N176" s="4" t="s">
         <v>595</v>
       </c>
       <c r="O176" s="2"/>
@@ -12326,7 +12322,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H177,params!$E:$E,0)),"")&amp;IF(AND($H177&lt;&gt;"",$I177&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I177,params!$E:$E,0)),"")&amp;IF(AND($I177&lt;&gt;"",$J177&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J177,params!$E:$E,0)),"")</f>
         <v>4</v>
       </c>
-      <c r="N177" s="5" t="s">
+      <c r="N177" s="4" t="s">
         <v>596</v>
       </c>
       <c r="O177" s="2"/>
@@ -12378,7 +12374,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H178,params!$E:$E,0)),"")&amp;IF(AND($H178&lt;&gt;"",$I178&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I178,params!$E:$E,0)),"")&amp;IF(AND($I178&lt;&gt;"",$J178&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J178,params!$E:$E,0)),"")</f>
         <v>1,7</v>
       </c>
-      <c r="N178" s="5" t="s">
+      <c r="N178" s="4" t="s">
         <v>597</v>
       </c>
       <c r="O178" s="2"/>
@@ -12430,10 +12426,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H179,params!$E:$E,0)),"")&amp;IF(AND($H179&lt;&gt;"",$I179&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I179,params!$E:$E,0)),"")&amp;IF(AND($I179&lt;&gt;"",$J179&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J179,params!$E:$E,0)),"")</f>
         <v>3,1,4</v>
       </c>
-      <c r="M179" s="5" t="s">
+      <c r="M179" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="N179" s="5" t="s">
+      <c r="N179" s="4" t="s">
         <v>561</v>
       </c>
       <c r="O179" s="2"/>
@@ -12483,10 +12479,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H180,params!$E:$E,0)),"")&amp;IF(AND($H180&lt;&gt;"",$I180&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I180,params!$E:$E,0)),"")&amp;IF(AND($I180&lt;&gt;"",$J180&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J180,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M180" s="5" t="s">
+      <c r="M180" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="N180" s="5" t="s">
+      <c r="N180" s="4" t="s">
         <v>572</v>
       </c>
       <c r="O180" s="2"/>
@@ -12538,7 +12534,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H181,params!$E:$E,0)),"")&amp;IF(AND($H181&lt;&gt;"",$I181&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I181,params!$E:$E,0)),"")&amp;IF(AND($I181&lt;&gt;"",$J181&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J181,params!$E:$E,0)),"")</f>
         <v>2</v>
       </c>
-      <c r="N181" s="5" t="s">
+      <c r="N181" s="4" t="s">
         <v>598</v>
       </c>
       <c r="O181" s="2"/>
@@ -12590,7 +12586,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H182,params!$E:$E,0)),"")&amp;IF(AND($H182&lt;&gt;"",$I182&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I182,params!$E:$E,0)),"")&amp;IF(AND($I182&lt;&gt;"",$J182&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J182,params!$E:$E,0)),"")</f>
         <v>2</v>
       </c>
-      <c r="N182" s="5" t="s">
+      <c r="N182" s="4" t="s">
         <v>599</v>
       </c>
       <c r="O182" s="2"/>
@@ -12642,7 +12638,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H183,params!$E:$E,0)),"")&amp;IF(AND($H183&lt;&gt;"",$I183&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I183,params!$E:$E,0)),"")&amp;IF(AND($I183&lt;&gt;"",$J183&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J183,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N183" s="5" t="s">
+      <c r="N183" s="4" t="s">
         <v>547</v>
       </c>
       <c r="O183" s="2"/>
@@ -12694,7 +12690,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H184,params!$E:$E,0)),"")&amp;IF(AND($H184&lt;&gt;"",$I184&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I184,params!$E:$E,0)),"")&amp;IF(AND($I184&lt;&gt;"",$J184&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J184,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N184" s="5" t="s">
+      <c r="N184" s="4" t="s">
         <v>600</v>
       </c>
       <c r="O184" s="2"/>
@@ -12746,7 +12742,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H185,params!$E:$E,0)),"")&amp;IF(AND($H185&lt;&gt;"",$I185&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I185,params!$E:$E,0)),"")&amp;IF(AND($I185&lt;&gt;"",$J185&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J185,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="N185" s="5" t="s">
+      <c r="N185" s="4" t="s">
         <v>601</v>
       </c>
       <c r="O185" s="2"/>
@@ -12798,7 +12794,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H186,params!$E:$E,0)),"")&amp;IF(AND($H186&lt;&gt;"",$I186&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I186,params!$E:$E,0)),"")&amp;IF(AND($I186&lt;&gt;"",$J186&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J186,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N186" s="5" t="s">
+      <c r="N186" s="4" t="s">
         <v>595</v>
       </c>
       <c r="O186" s="2"/>
@@ -12850,7 +12846,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H187,params!$E:$E,0)),"")&amp;IF(AND($H187&lt;&gt;"",$I187&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I187,params!$E:$E,0)),"")&amp;IF(AND($I187&lt;&gt;"",$J187&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J187,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N187" s="5" t="s">
+      <c r="N187" s="4" t="s">
         <v>602</v>
       </c>
       <c r="O187" s="2"/>
@@ -12902,7 +12898,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H188,params!$E:$E,0)),"")&amp;IF(AND($H188&lt;&gt;"",$I188&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I188,params!$E:$E,0)),"")&amp;IF(AND($I188&lt;&gt;"",$J188&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J188,params!$E:$E,0)),"")</f>
         <v>2</v>
       </c>
-      <c r="N188" s="5" t="s">
+      <c r="N188" s="4" t="s">
         <v>555</v>
       </c>
       <c r="O188" s="2"/>
@@ -12954,7 +12950,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H189,params!$E:$E,0)),"")&amp;IF(AND($H189&lt;&gt;"",$I189&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I189,params!$E:$E,0)),"")&amp;IF(AND($I189&lt;&gt;"",$J189&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J189,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N189" s="5" t="s">
+      <c r="N189" s="4" t="s">
         <v>603</v>
       </c>
       <c r="O189" s="2"/>
@@ -13006,7 +13002,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H190,params!$E:$E,0)),"")&amp;IF(AND($H190&lt;&gt;"",$I190&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I190,params!$E:$E,0)),"")&amp;IF(AND($I190&lt;&gt;"",$J190&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J190,params!$E:$E,0)),"")</f>
         <v>2</v>
       </c>
-      <c r="N190" s="5" t="s">
+      <c r="N190" s="4" t="s">
         <v>604</v>
       </c>
       <c r="O190" s="2"/>
@@ -13058,7 +13054,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H191,params!$E:$E,0)),"")&amp;IF(AND($H191&lt;&gt;"",$I191&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I191,params!$E:$E,0)),"")&amp;IF(AND($I191&lt;&gt;"",$J191&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J191,params!$E:$E,0)),"")</f>
         <v>5</v>
       </c>
-      <c r="N191" s="5" t="s">
+      <c r="N191" s="4" t="s">
         <v>572</v>
       </c>
       <c r="O191" s="2"/>
@@ -13110,10 +13106,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H192,params!$E:$E,0)),"")&amp;IF(AND($H192&lt;&gt;"",$I192&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I192,params!$E:$E,0)),"")&amp;IF(AND($I192&lt;&gt;"",$J192&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J192,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="M192" s="5" t="s">
+      <c r="M192" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="N192" s="5" t="s">
+      <c r="N192" s="4" t="s">
         <v>605</v>
       </c>
       <c r="O192" s="2"/>
@@ -13165,7 +13161,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H193,params!$E:$E,0)),"")&amp;IF(AND($H193&lt;&gt;"",$I193&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I193,params!$E:$E,0)),"")&amp;IF(AND($I193&lt;&gt;"",$J193&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J193,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N193" s="5" t="s">
+      <c r="N193" s="4" t="s">
         <v>606</v>
       </c>
       <c r="O193" s="2"/>
@@ -13217,7 +13213,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H194,params!$E:$E,0)),"")&amp;IF(AND($H194&lt;&gt;"",$I194&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I194,params!$E:$E,0)),"")&amp;IF(AND($I194&lt;&gt;"",$J194&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J194,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N194" s="5" t="s">
+      <c r="N194" s="4" t="s">
         <v>561</v>
       </c>
       <c r="O194" s="2"/>
@@ -13241,7 +13237,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="1" t="str">
-        <f>$U195</f>
+        <f t="shared" ref="C195:C226" si="7">$U195</f>
         <v>Titanium Mine</v>
       </c>
       <c r="D195" s="2" t="s">
@@ -13269,7 +13265,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H195,params!$E:$E,0)),"")&amp;IF(AND($H195&lt;&gt;"",$I195&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I195,params!$E:$E,0)),"")&amp;IF(AND($I195&lt;&gt;"",$J195&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J195,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N195" s="5" t="s">
+      <c r="N195" s="4" t="s">
         <v>604</v>
       </c>
       <c r="O195" s="2"/>
@@ -13293,7 +13289,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="1" t="str">
-        <f>$U196</f>
+        <f t="shared" si="7"/>
         <v>Toll Station</v>
       </c>
       <c r="D196" s="2" t="s">
@@ -13319,7 +13315,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H196,params!$E:$E,0)),"")&amp;IF(AND($H196&lt;&gt;"",$I196&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I196,params!$E:$E,0)),"")&amp;IF(AND($I196&lt;&gt;"",$J196&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J196,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N196" s="5" t="s">
+      <c r="N196" s="4" t="s">
         <v>607</v>
       </c>
       <c r="O196" s="2"/>
@@ -13343,7 +13339,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="1" t="str">
-        <f>$U197</f>
+        <f t="shared" si="7"/>
         <v>Trading Post</v>
       </c>
       <c r="D197" s="2" t="s">
@@ -13369,7 +13365,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H197,params!$E:$E,0)),"")&amp;IF(AND($H197&lt;&gt;"",$I197&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I197,params!$E:$E,0)),"")&amp;IF(AND($I197&lt;&gt;"",$J197&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J197,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N197" s="5" t="s">
+      <c r="N197" s="4" t="s">
         <v>608</v>
       </c>
       <c r="O197" s="2"/>
@@ -13393,7 +13389,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="1" t="str">
-        <f>$U198</f>
+        <f t="shared" si="7"/>
         <v>Trapped Heat</v>
       </c>
       <c r="D198" s="2" t="s">
@@ -13419,10 +13415,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H198,params!$E:$E,0)),"")&amp;IF(AND($H198&lt;&gt;"",$I198&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I198,params!$E:$E,0)),"")&amp;IF(AND($I198&lt;&gt;"",$J198&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J198,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M198" s="5" t="s">
+      <c r="M198" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="N198" s="5" t="s">
+      <c r="N198" s="4" t="s">
         <v>609</v>
       </c>
       <c r="O198" s="2"/>
@@ -13446,7 +13442,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="1" t="str">
-        <f>$U199</f>
+        <f t="shared" si="7"/>
         <v>Trees</v>
       </c>
       <c r="D199" s="2" t="s">
@@ -13474,10 +13470,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H199,params!$E:$E,0)),"")&amp;IF(AND($H199&lt;&gt;"",$I199&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I199,params!$E:$E,0)),"")&amp;IF(AND($I199&lt;&gt;"",$J199&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J199,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="M199" s="5" t="s">
+      <c r="M199" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="N199" s="5" t="s">
+      <c r="N199" s="4" t="s">
         <v>610</v>
       </c>
       <c r="O199" s="2"/>
@@ -13501,7 +13497,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="1" t="str">
-        <f>$U200</f>
+        <f t="shared" si="7"/>
         <v>Tropical Forest</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -13527,10 +13523,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H200,params!$E:$E,0)),"")&amp;IF(AND($H200&lt;&gt;"",$I200&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I200,params!$E:$E,0)),"")&amp;IF(AND($I200&lt;&gt;"",$J200&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J200,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M200" s="5" t="s">
+      <c r="M200" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="N200" s="5" t="s">
+      <c r="N200" s="4" t="s">
         <v>562</v>
       </c>
       <c r="O200" s="2"/>
@@ -13554,7 +13550,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="1" t="str">
-        <f>$U201</f>
+        <f t="shared" si="7"/>
         <v>Tundra Farming</v>
       </c>
       <c r="D201" s="2" t="s">
@@ -13582,10 +13578,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H201,params!$E:$E,0)),"")&amp;IF(AND($H201&lt;&gt;"",$I201&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I201,params!$E:$E,0)),"")&amp;IF(AND($I201&lt;&gt;"",$J201&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J201,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="M201" s="5" t="s">
+      <c r="M201" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="N201" s="5" t="s">
+      <c r="N201" s="4" t="s">
         <v>611</v>
       </c>
       <c r="O201" s="2"/>
@@ -13609,7 +13605,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="1" t="str">
-        <f>$U202</f>
+        <f t="shared" si="7"/>
         <v>Underground City</v>
       </c>
       <c r="D202" s="2" t="s">
@@ -13637,7 +13633,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H202,params!$E:$E,0)),"")&amp;IF(AND($H202&lt;&gt;"",$I202&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I202,params!$E:$E,0)),"")&amp;IF(AND($I202&lt;&gt;"",$J202&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J202,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N202" s="5" t="s">
+      <c r="N202" s="4" t="s">
         <v>612</v>
       </c>
       <c r="O202" s="2"/>
@@ -13661,7 +13657,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="1" t="str">
-        <f>$U203</f>
+        <f t="shared" si="7"/>
         <v>Undersea Vents</v>
       </c>
       <c r="D203" s="2" t="s">
@@ -13689,7 +13685,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H203,params!$E:$E,0)),"")&amp;IF(AND($H203&lt;&gt;"",$I203&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I203,params!$E:$E,0)),"")&amp;IF(AND($I203&lt;&gt;"",$J203&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J203,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N203" s="5" t="s">
+      <c r="N203" s="4" t="s">
         <v>585</v>
       </c>
       <c r="O203" s="2"/>
@@ -13713,7 +13709,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="1" t="str">
-        <f>$U204</f>
+        <f t="shared" si="7"/>
         <v>Venture Capitalism</v>
       </c>
       <c r="D204" s="2" t="s">
@@ -13739,7 +13735,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H204,params!$E:$E,0)),"")&amp;IF(AND($H204&lt;&gt;"",$I204&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I204,params!$E:$E,0)),"")&amp;IF(AND($I204&lt;&gt;"",$J204&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J204,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N204" s="5" t="s">
+      <c r="N204" s="4" t="s">
         <v>613</v>
       </c>
       <c r="O204" s="2"/>
@@ -13763,7 +13759,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="1" t="str">
-        <f>$U205</f>
+        <f t="shared" si="7"/>
         <v>Westa Shipyard</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -13791,7 +13787,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H205,params!$E:$E,0)),"")&amp;IF(AND($H205&lt;&gt;"",$I205&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I205,params!$E:$E,0)),"")&amp;IF(AND($I205&lt;&gt;"",$J205&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J205,params!$E:$E,0)),"")</f>
         <v>1,2,6</v>
       </c>
-      <c r="N205" s="5" t="s">
+      <c r="N205" s="4" t="s">
         <v>550</v>
       </c>
       <c r="O205" s="2"/>
@@ -13815,7 +13811,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="1" t="str">
-        <f>$U206</f>
+        <f t="shared" si="7"/>
         <v>Wave Power</v>
       </c>
       <c r="D206" s="2" t="s">
@@ -13843,10 +13839,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H206,params!$E:$E,0)),"")&amp;IF(AND($H206&lt;&gt;"",$I206&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I206,params!$E:$E,0)),"")&amp;IF(AND($I206&lt;&gt;"",$J206&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J206,params!$E:$E,0)),"")</f>
         <v>4</v>
       </c>
-      <c r="M206" s="5" t="s">
+      <c r="M206" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="N206" s="5" t="s">
+      <c r="N206" s="4" t="s">
         <v>561</v>
       </c>
       <c r="O206" s="2"/>
@@ -13870,7 +13866,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="1" t="str">
-        <f>$U207</f>
+        <f t="shared" si="7"/>
         <v>Windmills</v>
       </c>
       <c r="D207" s="2" t="s">
@@ -13898,7 +13894,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H207,params!$E:$E,0)),"")&amp;IF(AND($H207&lt;&gt;"",$I207&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I207,params!$E:$E,0)),"")&amp;IF(AND($I207&lt;&gt;"",$J207&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J207,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N207" s="5" t="s">
+      <c r="N207" s="4" t="s">
         <v>614</v>
       </c>
       <c r="O207" s="2"/>
@@ -13922,7 +13918,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="1" t="str">
-        <f>$U208</f>
+        <f t="shared" si="7"/>
         <v>Worms</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -13950,10 +13946,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H208,params!$E:$E,0)),"")&amp;IF(AND($H208&lt;&gt;"",$I208&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I208,params!$E:$E,0)),"")&amp;IF(AND($I208&lt;&gt;"",$J208&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J208,params!$E:$E,0)),"")</f>
         <v>9</v>
       </c>
-      <c r="M208" s="5" t="s">
+      <c r="M208" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="N208" s="5" t="s">
+      <c r="N208" s="4" t="s">
         <v>615</v>
       </c>
       <c r="O208" s="2"/>
@@ -13977,7 +13973,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="1" t="str">
-        <f>$U209</f>
+        <f t="shared" si="7"/>
         <v>Zeppelins</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -14003,10 +13999,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H209,params!$E:$E,0)),"")&amp;IF(AND($H209&lt;&gt;"",$I209&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I209,params!$E:$E,0)),"")&amp;IF(AND($I209&lt;&gt;"",$J209&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J209,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M209" s="5" t="s">
+      <c r="M209" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="N209" s="5" t="s">
+      <c r="N209" s="4" t="s">
         <v>616</v>
       </c>
       <c r="O209" s="2"/>
@@ -14030,7 +14026,7 @@
         <v>267</v>
       </c>
       <c r="C210" s="1" t="str">
-        <f>$U210</f>
+        <f t="shared" si="7"/>
         <v>Assorted Enterprises</v>
       </c>
       <c r="D210" s="2" t="s">
@@ -14056,7 +14052,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H210,params!$E:$E,0)),"")&amp;IF(AND($H210&lt;&gt;"",$I210&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I210,params!$E:$E,0)),"")&amp;IF(AND($I210&lt;&gt;"",$J210&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J210,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N210" s="5" t="s">
+      <c r="N210" s="4" t="s">
         <v>617</v>
       </c>
       <c r="O210" s="2"/>
@@ -14080,7 +14076,7 @@
         <v>268</v>
       </c>
       <c r="C211" s="1" t="str">
-        <f>$U211</f>
+        <f t="shared" si="7"/>
         <v>Commercial Imports</v>
       </c>
       <c r="D211" s="2" t="s">
@@ -14108,7 +14104,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H211,params!$E:$E,0)),"")&amp;IF(AND($H211&lt;&gt;"",$I211&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I211,params!$E:$E,0)),"")&amp;IF(AND($I211&lt;&gt;"",$J211&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J211,params!$E:$E,0)),"")</f>
         <v>2,7</v>
       </c>
-      <c r="N211" s="5" t="s">
+      <c r="N211" s="4" t="s">
         <v>618</v>
       </c>
       <c r="O211" s="2"/>
@@ -14132,7 +14128,7 @@
         <v>269</v>
       </c>
       <c r="C212" s="1" t="str">
-        <f>$U212</f>
+        <f t="shared" si="7"/>
         <v>Diverse Habitats</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -14160,7 +14156,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H212,params!$E:$E,0)),"")&amp;IF(AND($H212&lt;&gt;"",$I212&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I212,params!$E:$E,0)),"")&amp;IF(AND($I212&lt;&gt;"",$J212&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J212,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="N212" s="5" t="s">
+      <c r="N212" s="4" t="s">
         <v>619</v>
       </c>
       <c r="O212" s="2"/>
@@ -14184,7 +14180,7 @@
         <v>270</v>
       </c>
       <c r="C213" s="1" t="str">
-        <f>$U213</f>
+        <f t="shared" si="7"/>
         <v>Filter Feeders</v>
       </c>
       <c r="D213" s="2" t="s">
@@ -14212,10 +14208,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H213,params!$E:$E,0)),"")&amp;IF(AND($H213&lt;&gt;"",$I213&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I213,params!$E:$E,0)),"")&amp;IF(AND($I213&lt;&gt;"",$J213&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J213,params!$E:$E,0)),"")</f>
         <v>8</v>
       </c>
-      <c r="M213" s="5" t="s">
+      <c r="M213" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="N213" s="5" t="s">
+      <c r="N213" s="4" t="s">
         <v>620</v>
       </c>
       <c r="O213" s="2"/>
@@ -14239,7 +14235,7 @@
         <v>271</v>
       </c>
       <c r="C214" s="1" t="str">
-        <f>$U214</f>
+        <f t="shared" si="7"/>
         <v>Laboratories</v>
       </c>
       <c r="D214" s="2" t="s">
@@ -14267,7 +14263,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H214,params!$E:$E,0)),"")&amp;IF(AND($H214&lt;&gt;"",$I214&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I214,params!$E:$E,0)),"")&amp;IF(AND($I214&lt;&gt;"",$J214&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J214,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="N214" s="5" t="s">
+      <c r="N214" s="4" t="s">
         <v>621</v>
       </c>
       <c r="O214" s="2"/>
@@ -14291,7 +14287,7 @@
         <v>272</v>
       </c>
       <c r="C215" s="1" t="str">
-        <f>$U215</f>
+        <f t="shared" si="7"/>
         <v>Matter Generator</v>
       </c>
       <c r="D215" s="2" t="s">
@@ -14319,7 +14315,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H215,params!$E:$E,0)),"")&amp;IF(AND($H215&lt;&gt;"",$I215&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I215,params!$E:$E,0)),"")&amp;IF(AND($I215&lt;&gt;"",$J215&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J215,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N215" s="5" t="s">
+      <c r="N215" s="4" t="s">
         <v>622</v>
       </c>
       <c r="O215" s="2"/>
@@ -14343,7 +14339,7 @@
         <v>273</v>
       </c>
       <c r="C216" s="1" t="str">
-        <f>$U216</f>
+        <f t="shared" si="7"/>
         <v>Processed Metals</v>
       </c>
       <c r="D216" s="2" t="s">
@@ -14371,7 +14367,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H216,params!$E:$E,0)),"")&amp;IF(AND($H216&lt;&gt;"",$I216&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I216,params!$E:$E,0)),"")&amp;IF(AND($I216&lt;&gt;"",$J216&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J216,params!$E:$E,0)),"")</f>
         <v>2,4</v>
       </c>
-      <c r="N216" s="5" t="s">
+      <c r="N216" s="4" t="s">
         <v>623</v>
       </c>
       <c r="O216" s="2"/>
@@ -14395,7 +14391,7 @@
         <v>274</v>
       </c>
       <c r="C217" s="1" t="str">
-        <f>$U217</f>
+        <f t="shared" si="7"/>
         <v>Processing Plant</v>
       </c>
       <c r="D217" s="2" t="s">
@@ -14423,7 +14419,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H217,params!$E:$E,0)),"")&amp;IF(AND($H217&lt;&gt;"",$I217&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I217,params!$E:$E,0)),"")&amp;IF(AND($I217&lt;&gt;"",$J217&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J217,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N217" s="5" t="s">
+      <c r="N217" s="4" t="s">
         <v>624</v>
       </c>
       <c r="O217" s="2"/>
@@ -14447,7 +14443,7 @@
         <v>275</v>
       </c>
       <c r="C218" s="1" t="str">
-        <f>$U218</f>
+        <f t="shared" si="7"/>
         <v>Progressive Policies</v>
       </c>
       <c r="D218" s="2" t="s">
@@ -14475,7 +14471,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H218,params!$E:$E,0)),"")&amp;IF(AND($H218&lt;&gt;"",$I218&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I218,params!$E:$E,0)),"")&amp;IF(AND($I218&lt;&gt;"",$J218&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J218,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="N218" s="5" t="s">
+      <c r="N218" s="4" t="s">
         <v>625</v>
       </c>
       <c r="O218" s="2"/>
@@ -14499,7 +14495,7 @@
         <v>276</v>
       </c>
       <c r="C219" s="1" t="str">
-        <f>$U219</f>
+        <f t="shared" si="7"/>
         <v>Synthetic Catastrophe</v>
       </c>
       <c r="D219" s="2" t="s">
@@ -14525,7 +14521,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H219,params!$E:$E,0)),"")&amp;IF(AND($H219&lt;&gt;"",$I219&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I219,params!$E:$E,0)),"")&amp;IF(AND($I219&lt;&gt;"",$J219&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J219,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N219" s="5" t="s">
+      <c r="N219" s="4" t="s">
         <v>626</v>
       </c>
       <c r="O219" s="2"/>
@@ -14549,7 +14545,7 @@
         <v>277</v>
       </c>
       <c r="C220" s="1" t="str">
-        <f>$U220</f>
+        <f t="shared" si="7"/>
         <v>Self-Replicating Bacteria</v>
       </c>
       <c r="D220" s="2" t="s">
@@ -14577,7 +14573,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H220,params!$E:$E,0)),"")&amp;IF(AND($H220&lt;&gt;"",$I220&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I220,params!$E:$E,0)),"")&amp;IF(AND($I220&lt;&gt;"",$J220&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J220,params!$E:$E,0)),"")</f>
         <v>9</v>
       </c>
-      <c r="N220" s="5" t="s">
+      <c r="N220" s="4" t="s">
         <v>627</v>
       </c>
       <c r="O220" s="2"/>
@@ -14594,14 +14590,14 @@
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221">
-        <f t="shared" ref="A221:A274" si="7">SUM(A220,1)</f>
+        <f t="shared" ref="A221:A274" si="8">SUM(A220,1)</f>
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C221" s="1" t="str">
-        <f>$U221</f>
+        <f t="shared" si="7"/>
         <v>Tourism</v>
       </c>
       <c r="D221" s="2" t="s">
@@ -14629,7 +14625,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H221,params!$E:$E,0)),"")&amp;IF(AND($H221&lt;&gt;"",$I221&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I221,params!$E:$E,0)),"")&amp;IF(AND($I221&lt;&gt;"",$J221&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J221,params!$E:$E,0)),"")</f>
         <v>5</v>
       </c>
-      <c r="N221" s="5" t="e">
+      <c r="N221" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O221" s="2"/>
@@ -14646,14 +14642,14 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C222" s="1" t="str">
-        <f>$U222</f>
+        <f t="shared" si="7"/>
         <v>Orbital Outpost MVM</v>
       </c>
       <c r="D222" s="2" t="s">
@@ -14681,7 +14677,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H222,params!$E:$E,0)),"")&amp;IF(AND($H222&lt;&gt;"",$I222&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I222,params!$E:$E,0)),"")&amp;IF(AND($I222&lt;&gt;"",$J222&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J222,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N222" s="5" t="e">
+      <c r="N222" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O222" s="2"/>
@@ -14698,14 +14694,14 @@
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C223" s="1" t="str">
-        <f>$U223</f>
+        <f t="shared" si="7"/>
         <v>Bacterial Aggregates</v>
       </c>
       <c r="D223" s="2" t="s">
@@ -14733,7 +14729,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H223,params!$E:$E,0)),"")&amp;IF(AND($H223&lt;&gt;"",$I223&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I223,params!$E:$E,0)),"")&amp;IF(AND($I223&lt;&gt;"",$J223&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J223,params!$E:$E,0)),"")</f>
         <v>9,5</v>
       </c>
-      <c r="N223" s="5" t="e">
+      <c r="N223" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O223" s="2"/>
@@ -14750,14 +14746,14 @@
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C224" s="1" t="str">
-        <f>$U224</f>
+        <f t="shared" si="7"/>
         <v>City Council</v>
       </c>
       <c r="D224" s="2" t="s">
@@ -14785,7 +14781,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H224,params!$E:$E,0)),"")&amp;IF(AND($H224&lt;&gt;"",$I224&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I224,params!$E:$E,0)),"")&amp;IF(AND($I224&lt;&gt;"",$J224&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J224,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N224" s="5" t="e">
+      <c r="N224" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O224" s="2"/>
@@ -14802,14 +14798,14 @@
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C225" s="1" t="str">
-        <f>$U225</f>
+        <f t="shared" si="7"/>
         <v>Community Afforestation</v>
       </c>
       <c r="D225" s="2" t="s">
@@ -14837,7 +14833,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H225,params!$E:$E,0)),"")&amp;IF(AND($H225&lt;&gt;"",$I225&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I225,params!$E:$E,0)),"")&amp;IF(AND($I225&lt;&gt;"",$J225&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J225,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="N225" s="5" t="e">
+      <c r="N225" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O225" s="2"/>
@@ -14854,14 +14850,14 @@
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C226" s="1" t="str">
-        <f>$U226</f>
+        <f t="shared" si="7"/>
         <v>Orbital Outpost</v>
       </c>
       <c r="D226" s="2" t="s">
@@ -14889,7 +14885,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H226,params!$E:$E,0)),"")&amp;IF(AND($H226&lt;&gt;"",$I226&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I226,params!$E:$E,0)),"")&amp;IF(AND($I226&lt;&gt;"",$J226&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J226,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N226" s="5" t="e">
+      <c r="N226" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O226" s="2"/>
@@ -14906,14 +14902,14 @@
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>289</v>
       </c>
       <c r="C227" s="1" t="str">
-        <f>$U227</f>
+        <f t="shared" ref="C227:C258" si="9">$U227</f>
         <v>Gas-Cooled Reactors</v>
       </c>
       <c r="D227" s="2" t="s">
@@ -14941,7 +14937,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H227,params!$E:$E,0)),"")&amp;IF(AND($H227&lt;&gt;"",$I227&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I227,params!$E:$E,0)),"")&amp;IF(AND($I227&lt;&gt;"",$J227&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J227,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N227" s="5" t="e">
+      <c r="N227" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O227" s="2"/>
@@ -14958,14 +14954,14 @@
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C228" s="1" t="str">
-        <f>$U228</f>
+        <f t="shared" si="9"/>
         <v>Research Grant</v>
       </c>
       <c r="D228" s="2" t="s">
@@ -14993,7 +14989,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H228,params!$E:$E,0)),"")&amp;IF(AND($H228&lt;&gt;"",$I228&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I228,params!$E:$E,0)),"")&amp;IF(AND($I228&lt;&gt;"",$J228&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J228,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N228" s="5" t="e">
+      <c r="N228" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O228" s="2"/>
@@ -15010,14 +15006,14 @@
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C229" s="1" t="str">
-        <f>$U229</f>
+        <f t="shared" si="9"/>
         <v>Zoos</v>
       </c>
       <c r="D229" s="2" t="s">
@@ -15045,7 +15041,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H229,params!$E:$E,0)),"")&amp;IF(AND($H229&lt;&gt;"",$I229&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I229,params!$E:$E,0)),"")&amp;IF(AND($I229&lt;&gt;"",$J229&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J229,params!$E:$E,0)),"")</f>
         <v>8</v>
       </c>
-      <c r="N229" s="5" t="e">
+      <c r="N229" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O229" s="2"/>
@@ -15062,14 +15058,14 @@
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>292</v>
       </c>
       <c r="C230" s="1" t="str">
-        <f>$U230</f>
+        <f t="shared" si="9"/>
         <v>Innovative Teachnologies Award</v>
       </c>
       <c r="D230" s="2" t="s">
@@ -15095,7 +15091,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H230,params!$E:$E,0)),"")&amp;IF(AND($H230&lt;&gt;"",$I230&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I230,params!$E:$E,0)),"")&amp;IF(AND($I230&lt;&gt;"",$J230&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J230,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N230" s="5" t="e">
+      <c r="N230" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O230" s="2"/>
@@ -15112,14 +15108,14 @@
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C231" s="1" t="str">
-        <f>$U231</f>
+        <f t="shared" si="9"/>
         <v>Martian Studies Scholarship</v>
       </c>
       <c r="D231" s="2" t="s">
@@ -15145,7 +15141,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H231,params!$E:$E,0)),"")&amp;IF(AND($H231&lt;&gt;"",$I231&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I231,params!$E:$E,0)),"")&amp;IF(AND($I231&lt;&gt;"",$J231&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J231,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N231" s="5" t="e">
+      <c r="N231" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O231" s="2"/>
@@ -15162,14 +15158,14 @@
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>294</v>
       </c>
       <c r="C232" s="1" t="str">
-        <f>$U232</f>
+        <f t="shared" si="9"/>
         <v>Genetically Modified Vegetables</v>
       </c>
       <c r="D232" s="2" t="s">
@@ -15197,7 +15193,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H232,params!$E:$E,0)),"")&amp;IF(AND($H232&lt;&gt;"",$I232&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I232,params!$E:$E,0)),"")&amp;IF(AND($I232&lt;&gt;"",$J232&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J232,params!$E:$E,0)),"")</f>
         <v>9,7</v>
       </c>
-      <c r="N232" s="5" t="e">
+      <c r="N232" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O232" s="2"/>
@@ -15214,14 +15210,14 @@
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>295</v>
       </c>
       <c r="C233" s="1" t="str">
-        <f>$U233</f>
+        <f t="shared" si="9"/>
         <v>Glacial Evaporation</v>
       </c>
       <c r="D233" s="2" t="s">
@@ -15249,7 +15245,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H233,params!$E:$E,0)),"")&amp;IF(AND($H233&lt;&gt;"",$I233&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I233,params!$E:$E,0)),"")&amp;IF(AND($I233&lt;&gt;"",$J233&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J233,params!$E:$E,0)),"")</f>
         <v>4</v>
       </c>
-      <c r="N233" s="5" t="e">
+      <c r="N233" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O233" s="2"/>
@@ -15266,14 +15262,14 @@
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>296</v>
       </c>
       <c r="C234" s="1" t="str">
-        <f>$U234</f>
+        <f t="shared" si="9"/>
         <v>Tourism</v>
       </c>
       <c r="D234" s="2" t="s">
@@ -15301,7 +15297,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H234,params!$E:$E,0)),"")&amp;IF(AND($H234&lt;&gt;"",$I234&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I234,params!$E:$E,0)),"")&amp;IF(AND($I234&lt;&gt;"",$J234&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J234,params!$E:$E,0)),"")</f>
         <v>5</v>
       </c>
-      <c r="N234" s="5" t="e">
+      <c r="N234" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O234" s="2"/>
@@ -15318,14 +15314,14 @@
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>297</v>
       </c>
       <c r="C235" s="1" t="str">
-        <f>$U235</f>
+        <f t="shared" si="9"/>
         <v>Private Investor Beach</v>
       </c>
       <c r="D235" s="2" t="s">
@@ -15351,10 +15347,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H235,params!$E:$E,0)),"")&amp;IF(AND($H235&lt;&gt;"",$I235&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I235,params!$E:$E,0)),"")&amp;IF(AND($I235&lt;&gt;"",$J235&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J235,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M235" s="5" t="s">
+      <c r="M235" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="N235" s="5" t="e">
+      <c r="N235" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O235" s="2"/>
@@ -15371,14 +15367,14 @@
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>298</v>
       </c>
       <c r="C236" s="1" t="str">
-        <f>$U236</f>
+        <f t="shared" si="9"/>
         <v>Tourism (Game Boy Geek)</v>
       </c>
       <c r="D236" s="2" t="s">
@@ -15406,7 +15402,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H236,params!$E:$E,0)),"")&amp;IF(AND($H236&lt;&gt;"",$I236&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I236,params!$E:$E,0)),"")&amp;IF(AND($I236&lt;&gt;"",$J236&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J236,params!$E:$E,0)),"")</f>
         <v>5</v>
       </c>
-      <c r="N236" s="5" t="e">
+      <c r="N236" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O236" s="2"/>
@@ -15423,14 +15419,14 @@
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237">
-        <f t="shared" ref="A237" si="8">SUM(A236,1)</f>
+        <f t="shared" ref="A237" si="10">SUM(A236,1)</f>
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>300</v>
       </c>
       <c r="C237" s="1" t="str">
-        <f>$U237</f>
+        <f t="shared" si="9"/>
         <v>Communications Streamlining</v>
       </c>
       <c r="D237" s="2" t="s">
@@ -15458,7 +15454,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H237,params!$E:$E,0)),"")&amp;IF(AND($H237&lt;&gt;"",$I237&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I237,params!$E:$E,0)),"")&amp;IF(AND($I237&lt;&gt;"",$J237&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J237,params!$E:$E,0)),"")</f>
         <v>3,</v>
       </c>
-      <c r="N237" s="5" t="e">
+      <c r="N237" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O237" s="2"/>
@@ -15475,14 +15471,14 @@
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>301</v>
       </c>
       <c r="C238" s="1" t="str">
-        <f>$U238</f>
+        <f t="shared" si="9"/>
         <v>Drone Assisted Construction</v>
       </c>
       <c r="D238" s="2" t="s">
@@ -15510,7 +15506,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H238,params!$E:$E,0)),"")&amp;IF(AND($H238&lt;&gt;"",$I238&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I238,params!$E:$E,0)),"")&amp;IF(AND($I238&lt;&gt;"",$J238&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J238,params!$E:$E,0)),"")</f>
         <v>2</v>
       </c>
-      <c r="N238" s="5" t="e">
+      <c r="N238" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O238" s="2"/>
@@ -15527,14 +15523,14 @@
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>302</v>
       </c>
       <c r="C239" s="1" t="str">
-        <f>$U239</f>
+        <f t="shared" si="9"/>
         <v>Experimental Technology</v>
       </c>
       <c r="D239" s="2" t="s">
@@ -15562,7 +15558,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H239,params!$E:$E,0)),"")&amp;IF(AND($H239&lt;&gt;"",$I239&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I239,params!$E:$E,0)),"")&amp;IF(AND($I239&lt;&gt;"",$J239&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J239,params!$E:$E,0)),"")</f>
         <v>3,5</v>
       </c>
-      <c r="N239" s="5" t="e">
+      <c r="N239" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O239" s="2"/>
@@ -15579,14 +15575,14 @@
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>303</v>
       </c>
       <c r="C240" s="1" t="str">
-        <f>$U240</f>
+        <f t="shared" si="9"/>
         <v>Impact Analysis</v>
       </c>
       <c r="D240" s="2" t="s">
@@ -15614,7 +15610,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H240,params!$E:$E,0)),"")&amp;IF(AND($H240&lt;&gt;"",$I240&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I240,params!$E:$E,0)),"")&amp;IF(AND($I240&lt;&gt;"",$J240&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J240,params!$E:$E,0)),"")</f>
         <v>3,5</v>
       </c>
-      <c r="N240" s="5" t="e">
+      <c r="N240" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O240" s="2"/>
@@ -15631,14 +15627,14 @@
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C241" s="1" t="str">
-        <f>$U241</f>
+        <f t="shared" si="9"/>
         <v>Hohmann Transfer Shipping</v>
       </c>
       <c r="D241" s="2" t="s">
@@ -15666,7 +15662,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H241,params!$E:$E,0)),"")&amp;IF(AND($H241&lt;&gt;"",$I241&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I241,params!$E:$E,0)),"")&amp;IF(AND($I241&lt;&gt;"",$J241&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J241,params!$E:$E,0)),"")</f>
         <v>2,5</v>
       </c>
-      <c r="N241" s="5" t="e">
+      <c r="N241" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O241" s="2"/>
@@ -15683,14 +15679,14 @@
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>305</v>
       </c>
       <c r="C242" s="1" t="str">
-        <f>$U242</f>
+        <f t="shared" si="9"/>
         <v>Fibrous Composite Material</v>
       </c>
       <c r="D242" s="2" t="s">
@@ -15718,7 +15714,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H242,params!$E:$E,0)),"")&amp;IF(AND($H242&lt;&gt;"",$I242&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I242,params!$E:$E,0)),"")&amp;IF(AND($I242&lt;&gt;"",$J242&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J242,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="N242" s="5" t="e">
+      <c r="N242" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O242" s="2"/>
@@ -15735,14 +15731,14 @@
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C243" s="1" t="str">
-        <f>$U243</f>
+        <f t="shared" si="9"/>
         <v>Software Streamlining</v>
       </c>
       <c r="D243" s="2" t="s">
@@ -15770,7 +15766,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H243,params!$E:$E,0)),"")&amp;IF(AND($H243&lt;&gt;"",$I243&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I243,params!$E:$E,0)),"")&amp;IF(AND($I243&lt;&gt;"",$J243&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J243,params!$E:$E,0)),"")</f>
         <v>3,1</v>
       </c>
-      <c r="N243" s="5" t="e">
+      <c r="N243" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O243" s="2"/>
@@ -15787,14 +15783,14 @@
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>307</v>
       </c>
       <c r="C244" s="1" t="str">
-        <f>$U244</f>
+        <f t="shared" si="9"/>
         <v>Virtual Employee Development</v>
       </c>
       <c r="D244" s="2" t="s">
@@ -15822,10 +15818,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H244,params!$E:$E,0)),"")&amp;IF(AND($H244&lt;&gt;"",$I244&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I244,params!$E:$E,0)),"")&amp;IF(AND($I244&lt;&gt;"",$J244&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J244,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="M244" s="5" t="s">
+      <c r="M244" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="N244" s="5" t="e">
+      <c r="N244" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O244" s="2"/>
@@ -15842,14 +15838,14 @@
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>308</v>
       </c>
       <c r="C245" s="1" t="str">
-        <f>$U245</f>
+        <f t="shared" si="9"/>
         <v>Volcanic Soil</v>
       </c>
       <c r="D245" s="2" t="s">
@@ -15877,7 +15873,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H245,params!$E:$E,0)),"")&amp;IF(AND($H245&lt;&gt;"",$I245&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I245,params!$E:$E,0)),"")&amp;IF(AND($I245&lt;&gt;"",$J245&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J245,params!$E:$E,0)),"")</f>
         <v>1,7,6</v>
       </c>
-      <c r="N245" s="5" t="e">
+      <c r="N245" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O245" s="2"/>
@@ -15894,14 +15890,14 @@
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>309</v>
       </c>
       <c r="C246" s="1" t="str">
-        <f>$U246</f>
+        <f t="shared" si="9"/>
         <v>Biomedical Imports</v>
       </c>
       <c r="D246" s="2" t="s">
@@ -15927,7 +15923,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H246,params!$E:$E,0)),"")&amp;IF(AND($H246&lt;&gt;"",$I246&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I246,params!$E:$E,0)),"")&amp;IF(AND($I246&lt;&gt;"",$J246&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J246,params!$E:$E,0)),"")</f>
         <v>3,</v>
       </c>
-      <c r="N246" s="5" t="e">
+      <c r="N246" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O246" s="2"/>
@@ -15944,14 +15940,14 @@
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>310</v>
       </c>
       <c r="C247" s="1" t="str">
-        <f>$U247</f>
+        <f t="shared" si="9"/>
         <v>Cryogentic Shipment</v>
       </c>
       <c r="D247" s="2" t="s">
@@ -15977,7 +15973,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H247,params!$E:$E,0)),"")&amp;IF(AND($H247&lt;&gt;"",$I247&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I247,params!$E:$E,0)),"")&amp;IF(AND($I247&lt;&gt;"",$J247&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J247,params!$E:$E,0)),"")</f>
         <v>9,</v>
       </c>
-      <c r="N247" s="5" t="e">
+      <c r="N247" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O247" s="2"/>
@@ -15994,14 +15990,14 @@
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>311</v>
       </c>
       <c r="C248" s="1" t="str">
-        <f>$U248</f>
+        <f t="shared" si="9"/>
         <v>Exosuits</v>
       </c>
       <c r="D248" s="2" t="s">
@@ -16027,7 +16023,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H248,params!$E:$E,0)),"")&amp;IF(AND($H248&lt;&gt;"",$I248&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I248,params!$E:$E,0)),"")&amp;IF(AND($I248&lt;&gt;"",$J248&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J248,params!$E:$E,0)),"")</f>
         <v>2,</v>
       </c>
-      <c r="N248" s="5" t="e">
+      <c r="N248" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O248" s="2"/>
@@ -16044,14 +16040,14 @@
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C249" s="1" t="str">
-        <f>$U249</f>
+        <f t="shared" si="9"/>
         <v>Imported Construction Crews</v>
       </c>
       <c r="D249" s="2" t="s">
@@ -16077,10 +16073,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H249,params!$E:$E,0)),"")&amp;IF(AND($H249&lt;&gt;"",$I249&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I249,params!$E:$E,0)),"")&amp;IF(AND($I249&lt;&gt;"",$J249&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J249,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M249" s="5" t="s">
+      <c r="M249" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="N249" s="5" t="e">
+      <c r="N249" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O249" s="2"/>
@@ -16097,14 +16093,14 @@
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>313</v>
       </c>
       <c r="C250" s="1" t="str">
-        <f>$U250</f>
+        <f t="shared" si="9"/>
         <v>Ore Leaching</v>
       </c>
       <c r="D250" s="2" t="s">
@@ -16130,7 +16126,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H250,params!$E:$E,0)),"")&amp;IF(AND($H250&lt;&gt;"",$I250&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I250,params!$E:$E,0)),"")&amp;IF(AND($I250&lt;&gt;"",$J250&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J250,params!$E:$E,0)),"")</f>
         <v>2,6,</v>
       </c>
-      <c r="N250" s="5" t="e">
+      <c r="N250" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O250" s="2"/>
@@ -16147,14 +16143,14 @@
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>314</v>
       </c>
       <c r="C251" s="1" t="str">
-        <f>$U251</f>
+        <f t="shared" si="9"/>
         <v>Private Investor Beach</v>
       </c>
       <c r="D251" s="2" t="s">
@@ -16180,10 +16176,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H251,params!$E:$E,0)),"")&amp;IF(AND($H251&lt;&gt;"",$I251&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I251,params!$E:$E,0)),"")&amp;IF(AND($I251&lt;&gt;"",$J251&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J251,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="M251" s="5" t="s">
+      <c r="M251" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="N251" s="5" t="e">
+      <c r="N251" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O251" s="2"/>
@@ -16200,14 +16196,14 @@
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>315</v>
       </c>
       <c r="C252" s="1" t="str">
-        <f>$U252</f>
+        <f t="shared" si="9"/>
         <v>Topographic Mapping</v>
       </c>
       <c r="D252" s="2" t="s">
@@ -16233,7 +16229,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H252,params!$E:$E,0)),"")&amp;IF(AND($H252&lt;&gt;"",$I252&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I252,params!$E:$E,0)),"")&amp;IF(AND($I252&lt;&gt;"",$J252&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J252,params!$E:$E,0)),"")</f>
         <v>,</v>
       </c>
-      <c r="N252" s="5" t="e">
+      <c r="N252" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O252" s="2"/>
@@ -16250,14 +16246,14 @@
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C253" s="1" t="str">
-        <f>$U253</f>
+        <f t="shared" si="9"/>
         <v>3D Printing</v>
       </c>
       <c r="D253" s="2" t="s">
@@ -16285,7 +16281,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H253,params!$E:$E,0)),"")&amp;IF(AND($H253&lt;&gt;"",$I253&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I253,params!$E:$E,0)),"")&amp;IF(AND($I253&lt;&gt;"",$J253&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J253,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N253" s="5" t="e">
+      <c r="N253" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O253" s="2"/>
@@ -16302,14 +16298,14 @@
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C254" s="1" t="str">
-        <f>$U254</f>
+        <f t="shared" si="9"/>
         <v>Biofoundries</v>
       </c>
       <c r="D254" s="2" t="s">
@@ -16337,7 +16333,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H254,params!$E:$E,0)),"")&amp;IF(AND($H254&lt;&gt;"",$I254&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I254,params!$E:$E,0)),"")&amp;IF(AND($I254&lt;&gt;"",$J254&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J254,params!$E:$E,0)),"")</f>
         <v>1,7</v>
       </c>
-      <c r="N254" s="5" t="e">
+      <c r="N254" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O254" s="2"/>
@@ -16354,14 +16350,14 @@
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>318</v>
       </c>
       <c r="C255" s="1" t="str">
-        <f>$U255</f>
+        <f t="shared" si="9"/>
         <v>Blast Furnace</v>
       </c>
       <c r="D255" s="2" t="s">
@@ -16387,7 +16383,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H255,params!$E:$E,0)),"")&amp;IF(AND($H255&lt;&gt;"",$I255&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I255,params!$E:$E,0)),"")&amp;IF(AND($I255&lt;&gt;"",$J255&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J255,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N255" s="5" t="e">
+      <c r="N255" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O255" s="2"/>
@@ -16404,14 +16400,14 @@
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C256" s="1" t="str">
-        <f>$U256</f>
+        <f t="shared" si="9"/>
         <v>Dandelions</v>
       </c>
       <c r="D256" s="2" t="s">
@@ -16439,10 +16435,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H256,params!$E:$E,0)),"")&amp;IF(AND($H256&lt;&gt;"",$I256&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I256,params!$E:$E,0)),"")&amp;IF(AND($I256&lt;&gt;"",$J256&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J256,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="M256" s="5" t="s">
+      <c r="M256" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="N256" s="5" t="e">
+      <c r="N256" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O256" s="2"/>
@@ -16459,14 +16455,14 @@
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C257" s="1" t="str">
-        <f>$U257</f>
+        <f t="shared" si="9"/>
         <v>Electric Arc Furnaces</v>
       </c>
       <c r="D257" s="2" t="s">
@@ -16492,7 +16488,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H257,params!$E:$E,0)),"")&amp;IF(AND($H257&lt;&gt;"",$I257&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I257,params!$E:$E,0)),"")&amp;IF(AND($I257&lt;&gt;"",$J257&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J257,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N257" s="5" t="e">
+      <c r="N257" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O257" s="2"/>
@@ -16509,14 +16505,14 @@
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>321</v>
       </c>
       <c r="C258" s="1" t="str">
-        <f>$U258</f>
+        <f t="shared" si="9"/>
         <v>Local Market</v>
       </c>
       <c r="D258" s="2" t="s">
@@ -16544,7 +16540,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H258,params!$E:$E,0)),"")&amp;IF(AND($H258&lt;&gt;"",$I258&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I258,params!$E:$E,0)),"")&amp;IF(AND($I258&lt;&gt;"",$J258&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J258,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N258" s="5" t="e">
+      <c r="N258" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O258" s="2"/>
@@ -16561,14 +16557,14 @@
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>322</v>
       </c>
       <c r="C259" s="1" t="str">
-        <f t="shared" ref="C259:C296" si="9">$U259</f>
+        <f t="shared" ref="C259:C296" si="11">$U259</f>
         <v>Manufacturing Hub</v>
       </c>
       <c r="D259" s="2" t="s">
@@ -16596,7 +16592,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H259,params!$E:$E,0)),"")&amp;IF(AND($H259&lt;&gt;"",$I259&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I259,params!$E:$E,0)),"")&amp;IF(AND($I259&lt;&gt;"",$J259&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J259,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N259" s="5" t="e">
+      <c r="N259" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O259" s="2"/>
@@ -16613,14 +16609,14 @@
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C260" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Heat Reflective Glass</v>
       </c>
       <c r="D260" s="2" t="s">
@@ -16646,7 +16642,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H260,params!$E:$E,0)),"")&amp;IF(AND($H260&lt;&gt;"",$I260&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I260,params!$E:$E,0)),"")&amp;IF(AND($I260&lt;&gt;"",$J260&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J260,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N260" s="5" t="e">
+      <c r="N260" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O260" s="2"/>
@@ -16663,14 +16659,14 @@
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>324</v>
       </c>
       <c r="C261" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Hematite Mining</v>
       </c>
       <c r="D261" s="2" t="s">
@@ -16698,7 +16694,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H261,params!$E:$E,0)),"")&amp;IF(AND($H261&lt;&gt;"",$I261&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I261,params!$E:$E,0)),"")&amp;IF(AND($I261&lt;&gt;"",$J261&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J261,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N261" s="5" t="e">
+      <c r="N261" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O261" s="2"/>
@@ -16715,14 +16711,14 @@
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C262" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Hydroponic Gardens</v>
       </c>
       <c r="D262" s="2" t="s">
@@ -16750,7 +16746,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H262,params!$E:$E,0)),"")&amp;IF(AND($H262&lt;&gt;"",$I262&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I262,params!$E:$E,0)),"")&amp;IF(AND($I262&lt;&gt;"",$J262&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J262,params!$E:$E,0)),"")</f>
         <v>2,9</v>
       </c>
-      <c r="N262" s="5" t="e">
+      <c r="N262" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O262" s="2"/>
@@ -16767,14 +16763,14 @@
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>326</v>
       </c>
       <c r="C263" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Ilmenite Deposits</v>
       </c>
       <c r="D263" s="2" t="s">
@@ -16802,7 +16798,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H263,params!$E:$E,0)),"")&amp;IF(AND($H263&lt;&gt;"",$I263&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I263,params!$E:$E,0)),"")&amp;IF(AND($I263&lt;&gt;"",$J263&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J263,params!$E:$E,0)),"")</f>
         <v>2</v>
       </c>
-      <c r="N263" s="5" t="e">
+      <c r="N263" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O263" s="2"/>
@@ -16819,14 +16815,14 @@
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>327</v>
       </c>
       <c r="C264" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Industrial Complex</v>
       </c>
       <c r="D264" s="2" t="s">
@@ -16854,7 +16850,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H264,params!$E:$E,0)),"")&amp;IF(AND($H264&lt;&gt;"",$I264&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I264,params!$E:$E,0)),"")&amp;IF(AND($I264&lt;&gt;"",$J264&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J264,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N264" s="5" t="e">
+      <c r="N264" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O264" s="2"/>
@@ -16871,14 +16867,14 @@
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>328</v>
       </c>
       <c r="C265" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Martian Museum</v>
       </c>
       <c r="D265" s="2" t="s">
@@ -16906,7 +16902,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H265,params!$E:$E,0)),"")&amp;IF(AND($H265&lt;&gt;"",$I265&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I265,params!$E:$E,0)),"")&amp;IF(AND($I265&lt;&gt;"",$J265&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J265,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N265" s="5" t="e">
+      <c r="N265" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O265" s="2"/>
@@ -16923,14 +16919,14 @@
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>329</v>
       </c>
       <c r="C266" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Metallurgy</v>
       </c>
       <c r="D266" s="2" t="s">
@@ -16958,7 +16954,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H266,params!$E:$E,0)),"")&amp;IF(AND($H266&lt;&gt;"",$I266&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I266,params!$E:$E,0)),"")&amp;IF(AND($I266&lt;&gt;"",$J266&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J266,params!$E:$E,0)),"")</f>
         <v>3,2</v>
       </c>
-      <c r="N266" s="5" t="e">
+      <c r="N266" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O266" s="2"/>
@@ -16975,14 +16971,14 @@
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C267" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Award Winning Reflector Material</v>
       </c>
       <c r="D267" s="2" t="s">
@@ -17010,7 +17006,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H267,params!$E:$E,0)),"")&amp;IF(AND($H267&lt;&gt;"",$I267&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I267,params!$E:$E,0)),"")&amp;IF(AND($I267&lt;&gt;"",$J267&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J267,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N267" s="5" t="e">
+      <c r="N267" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O267" s="2"/>
@@ -17027,14 +17023,14 @@
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>331</v>
       </c>
       <c r="C268" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Oxidation Byproducts</v>
       </c>
       <c r="D268" s="2" t="s">
@@ -17062,7 +17058,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H268,params!$E:$E,0)),"")&amp;IF(AND($H268&lt;&gt;"",$I268&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I268,params!$E:$E,0)),"")&amp;IF(AND($I268&lt;&gt;"",$J268&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J268,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N268" s="5" t="e">
+      <c r="N268" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O268" s="2"/>
@@ -17079,14 +17075,14 @@
     </row>
     <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>332</v>
       </c>
       <c r="C269" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Perfluorocarbon Production</v>
       </c>
       <c r="D269" s="2" t="s">
@@ -17114,7 +17110,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H269,params!$E:$E,0)),"")&amp;IF(AND($H269&lt;&gt;"",$I269&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I269,params!$E:$E,0)),"")&amp;IF(AND($I269&lt;&gt;"",$J269&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J269,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N269" s="5" t="e">
+      <c r="N269" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O269" s="2"/>
@@ -17131,14 +17127,14 @@
     </row>
     <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>333</v>
       </c>
       <c r="C270" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Magnetic Field Generator</v>
       </c>
       <c r="D270" s="2" t="s">
@@ -17166,7 +17162,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H270,params!$E:$E,0)),"")&amp;IF(AND($H270&lt;&gt;"",$I270&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I270,params!$E:$E,0)),"")&amp;IF(AND($I270&lt;&gt;"",$J270&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J270,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N270" s="5" t="e">
+      <c r="N270" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O270" s="2"/>
@@ -17183,14 +17179,14 @@
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>334</v>
       </c>
       <c r="C271" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Political Influence</v>
       </c>
       <c r="D271" s="2" t="s">
@@ -17218,7 +17214,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H271,params!$E:$E,0)),"")&amp;IF(AND($H271&lt;&gt;"",$I271&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I271,params!$E:$E,0)),"")&amp;IF(AND($I271&lt;&gt;"",$J271&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J271,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N271" s="5" t="e">
+      <c r="N271" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O271" s="2"/>
@@ -17235,14 +17231,14 @@
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>335</v>
       </c>
       <c r="C272" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Biological Factories</v>
       </c>
       <c r="D272" s="2" t="s">
@@ -17270,7 +17266,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H272,params!$E:$E,0)),"")&amp;IF(AND($H272&lt;&gt;"",$I272&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I272,params!$E:$E,0)),"")&amp;IF(AND($I272&lt;&gt;"",$J272&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J272,params!$E:$E,0)),"")</f>
         <v>1,7</v>
       </c>
-      <c r="N272" s="5" t="e">
+      <c r="N272" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O272" s="2"/>
@@ -17287,14 +17283,14 @@
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>336</v>
       </c>
       <c r="C273" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Nuclear Detonation Site</v>
       </c>
       <c r="D273" s="2" t="s">
@@ -17320,7 +17316,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H273,params!$E:$E,0)),"")&amp;IF(AND($H273&lt;&gt;"",$I273&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I273,params!$E:$E,0)),"")&amp;IF(AND($I273&lt;&gt;"",$J273&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J273,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N273" s="5" t="e">
+      <c r="N273" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O273" s="2"/>
@@ -17337,14 +17333,14 @@
     </row>
     <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>337</v>
       </c>
       <c r="C274" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Warehouses</v>
       </c>
       <c r="D274" s="2" t="s">
@@ -17372,7 +17368,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H274,params!$E:$E,0)),"")&amp;IF(AND($H274&lt;&gt;"",$I274&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I274,params!$E:$E,0)),"")&amp;IF(AND($I274&lt;&gt;"",$J274&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J274,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N274" s="5" t="e">
+      <c r="N274" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O274" s="2"/>
@@ -17389,14 +17385,14 @@
     </row>
     <row r="275" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A275">
-        <f t="shared" ref="A275:A296" si="10">SUM(A274,1)</f>
+        <f t="shared" ref="A275:A296" si="12">SUM(A274,1)</f>
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>338</v>
       </c>
       <c r="C275" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Adaptation Technology</v>
       </c>
       <c r="D275" s="2" t="s">
@@ -17424,7 +17420,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H275,params!$E:$E,0)),"")&amp;IF(AND($H275&lt;&gt;"",$I275&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I275,params!$E:$E,0)),"")&amp;IF(AND($I275&lt;&gt;"",$J275&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J275,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="N275" s="5" t="s">
+      <c r="N275" s="4" t="s">
         <v>450</v>
       </c>
       <c r="O275" s="2"/>
@@ -17441,14 +17437,14 @@
     </row>
     <row r="276" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A276">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>339</v>
       </c>
       <c r="C276" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Special Design</v>
       </c>
       <c r="D276" s="2" t="s">
@@ -17474,7 +17470,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H276,params!$E:$E,0)),"")&amp;IF(AND($H276&lt;&gt;"",$I276&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I276,params!$E:$E,0)),"")&amp;IF(AND($I276&lt;&gt;"",$J276&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J276,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N276" s="5" t="s">
+      <c r="N276" s="4" t="s">
         <v>538</v>
       </c>
       <c r="O276" s="2"/>
@@ -17491,14 +17487,14 @@
     </row>
     <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>340</v>
       </c>
       <c r="C277" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Cargo Ships</v>
       </c>
       <c r="D277" s="2" t="s">
@@ -17522,7 +17518,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H277,params!$E:$E,0)),"")&amp;IF(AND($H277&lt;&gt;"",$I277&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I277,params!$E:$E,0)),"")&amp;IF(AND($I277&lt;&gt;"",$J277&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J277,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N277" s="5" t="e">
+      <c r="N277" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O277" s="2"/>
@@ -17539,14 +17535,14 @@
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C278" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Interplanetary Superhighway</v>
       </c>
       <c r="D278" s="2" t="s">
@@ -17574,7 +17570,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H278,params!$E:$E,0)),"")&amp;IF(AND($H278&lt;&gt;"",$I278&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I278,params!$E:$E,0)),"")&amp;IF(AND($I278&lt;&gt;"",$J278&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J278,params!$E:$E,0)),"")</f>
         <v>3,2,5</v>
       </c>
-      <c r="N278" s="5" t="e">
+      <c r="N278" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O278" s="2"/>
@@ -17591,14 +17587,14 @@
     </row>
     <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>342</v>
       </c>
       <c r="C279" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Maglev Trains</v>
       </c>
       <c r="D279" s="2" t="s">
@@ -17626,7 +17622,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H279,params!$E:$E,0)),"")&amp;IF(AND($H279&lt;&gt;"",$I279&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I279,params!$E:$E,0)),"")&amp;IF(AND($I279&lt;&gt;"",$J279&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J279,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N279" s="5" t="e">
+      <c r="N279" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O279" s="2"/>
@@ -17643,14 +17639,14 @@
     </row>
     <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>343</v>
       </c>
       <c r="C280" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Pets</v>
       </c>
       <c r="D280" s="2" t="s">
@@ -17678,7 +17674,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H280,params!$E:$E,0)),"")&amp;IF(AND($H280&lt;&gt;"",$I280&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I280,params!$E:$E,0)),"")&amp;IF(AND($I280&lt;&gt;"",$J280&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J280,params!$E:$E,0)),"")</f>
         <v>8</v>
       </c>
-      <c r="N280" s="5" t="e">
+      <c r="N280" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O280" s="2"/>
@@ -17695,14 +17691,14 @@
     </row>
     <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>344</v>
       </c>
       <c r="C281" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Sawmill</v>
       </c>
       <c r="D281" s="2" t="s">
@@ -17730,7 +17726,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H281,params!$E:$E,0)),"")&amp;IF(AND($H281&lt;&gt;"",$I281&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I281,params!$E:$E,0)),"")&amp;IF(AND($I281&lt;&gt;"",$J281&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J281,params!$E:$E,0)),"")</f>
         <v>1,4</v>
       </c>
-      <c r="N281" s="5" t="e">
+      <c r="N281" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O281" s="2"/>
@@ -17747,14 +17743,14 @@
     </row>
     <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>345</v>
       </c>
       <c r="C282" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Architecture Blueprints</v>
       </c>
       <c r="D282" s="2" t="s">
@@ -17780,7 +17776,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H282,params!$E:$E,0)),"")&amp;IF(AND($H282&lt;&gt;"",$I282&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I282,params!$E:$E,0)),"")&amp;IF(AND($I282&lt;&gt;"",$J282&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J282,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N282" s="5" t="e">
+      <c r="N282" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O282" s="2"/>
@@ -17797,14 +17793,14 @@
     </row>
     <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C283" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Bedrock Wellbore</v>
       </c>
       <c r="D283" s="2" t="s">
@@ -17830,7 +17826,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H283,params!$E:$E,0)),"")&amp;IF(AND($H283&lt;&gt;"",$I283&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I283,params!$E:$E,0)),"")&amp;IF(AND($I283&lt;&gt;"",$J283&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J283,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N283" s="5" t="e">
+      <c r="N283" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O283" s="2"/>
@@ -17847,14 +17843,14 @@
     </row>
     <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>347</v>
       </c>
       <c r="C284" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Callisto Skybridge</v>
       </c>
       <c r="D284" s="2" t="s">
@@ -17880,7 +17876,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H284,params!$E:$E,0)),"")&amp;IF(AND($H284&lt;&gt;"",$I284&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I284,params!$E:$E,0)),"")&amp;IF(AND($I284&lt;&gt;"",$J284&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J284,params!$E:$E,0)),"")</f>
         <v>2,6,</v>
       </c>
-      <c r="N284" s="5" t="e">
+      <c r="N284" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O284" s="2"/>
@@ -17897,14 +17893,14 @@
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C285" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>CHP Combustion Turbines</v>
       </c>
       <c r="D285" s="2" t="s">
@@ -17930,7 +17926,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H285,params!$E:$E,0)),"")&amp;IF(AND($H285&lt;&gt;"",$I285&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I285,params!$E:$E,0)),"")&amp;IF(AND($I285&lt;&gt;"",$J285&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J285,params!$E:$E,0)),"")</f>
         <v>2,4,</v>
       </c>
-      <c r="N285" s="5" t="e">
+      <c r="N285" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O285" s="2"/>
@@ -17947,14 +17943,14 @@
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>349</v>
       </c>
       <c r="C286" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>City Planning</v>
       </c>
       <c r="D286" s="2" t="s">
@@ -17980,7 +17976,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H286,params!$E:$E,0)),"")&amp;IF(AND($H286&lt;&gt;"",$I286&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I286,params!$E:$E,0)),"")&amp;IF(AND($I286&lt;&gt;"",$J286&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J286,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N286" s="5" t="e">
+      <c r="N286" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O286" s="2"/>
@@ -17997,14 +17993,14 @@
     </row>
     <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C287" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Grain Silos</v>
       </c>
       <c r="D287" s="2" t="s">
@@ -18030,7 +18026,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H287,params!$E:$E,0)),"")&amp;IF(AND($H287&lt;&gt;"",$I287&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I287,params!$E:$E,0)),"")&amp;IF(AND($I287&lt;&gt;"",$J287&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J287,params!$E:$E,0)),"")</f>
         <v>1,7,</v>
       </c>
-      <c r="N287" s="5" t="e">
+      <c r="N287" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O287" s="2"/>
@@ -18047,14 +18043,14 @@
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>351</v>
       </c>
       <c r="C288" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Invasive Irigation</v>
       </c>
       <c r="D288" s="2" t="s">
@@ -18080,7 +18076,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H288,params!$E:$E,0)),"")&amp;IF(AND($H288&lt;&gt;"",$I288&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I288,params!$E:$E,0)),"")&amp;IF(AND($I288&lt;&gt;"",$J288&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J288,params!$E:$E,0)),"")</f>
         <v>1,7,</v>
       </c>
-      <c r="N288" s="5" t="e">
+      <c r="N288" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O288" s="2"/>
@@ -18097,14 +18093,14 @@
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>352</v>
       </c>
       <c r="C289" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Jezero Crater Hospital</v>
       </c>
       <c r="D289" s="2" t="s">
@@ -18130,7 +18126,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H289,params!$E:$E,0)),"")&amp;IF(AND($H289&lt;&gt;"",$I289&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I289,params!$E:$E,0)),"")&amp;IF(AND($I289&lt;&gt;"",$J289&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J289,params!$E:$E,0)),"")</f>
         <v>1,</v>
       </c>
-      <c r="N289" s="5" t="e">
+      <c r="N289" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O289" s="2"/>
@@ -18147,14 +18143,14 @@
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>353</v>
       </c>
       <c r="C290" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Low-Atmosphere Planes</v>
       </c>
       <c r="D290" s="2" t="s">
@@ -18180,7 +18176,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H290,params!$E:$E,0)),"")&amp;IF(AND($H290&lt;&gt;"",$I290&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I290,params!$E:$E,0)),"")&amp;IF(AND($I290&lt;&gt;"",$J290&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J290,params!$E:$E,0)),"")</f>
         <v>3,</v>
       </c>
-      <c r="N290" s="5" t="e">
+      <c r="N290" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O290" s="2"/>
@@ -18197,14 +18193,14 @@
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>354</v>
       </c>
       <c r="C291" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Power Grid Uplink</v>
       </c>
       <c r="D291" s="2" t="s">
@@ -18230,7 +18226,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H291,params!$E:$E,0)),"")&amp;IF(AND($H291&lt;&gt;"",$I291&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I291,params!$E:$E,0)),"")&amp;IF(AND($I291&lt;&gt;"",$J291&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J291,params!$E:$E,0)),"")</f>
         <v>4,</v>
       </c>
-      <c r="N291" s="5" t="e">
+      <c r="N291" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O291" s="2"/>
@@ -18247,14 +18243,14 @@
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>355</v>
       </c>
       <c r="C292" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Subways</v>
       </c>
       <c r="D292" s="2" t="s">
@@ -18280,7 +18276,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H292,params!$E:$E,0)),"")&amp;IF(AND($H292&lt;&gt;"",$I292&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I292,params!$E:$E,0)),"")&amp;IF(AND($I292&lt;&gt;"",$J292&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J292,params!$E:$E,0)),"")</f>
         <v>1</v>
       </c>
-      <c r="N292" s="5" t="e">
+      <c r="N292" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O292" s="2"/>
@@ -18297,14 +18293,14 @@
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>356</v>
       </c>
       <c r="C293" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Urban Forestry</v>
       </c>
       <c r="D293" s="2" t="s">
@@ -18330,10 +18326,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H293,params!$E:$E,0)),"")&amp;IF(AND($H293&lt;&gt;"",$I293&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I293,params!$E:$E,0)),"")&amp;IF(AND($I293&lt;&gt;"",$J293&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J293,params!$E:$E,0)),"")</f>
         <v>7</v>
       </c>
-      <c r="M293" s="5" t="s">
+      <c r="M293" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="N293" s="5" t="e">
+      <c r="N293" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O293" s="2"/>
@@ -18350,14 +18346,14 @@
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>357</v>
       </c>
       <c r="C294" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Microloans</v>
       </c>
       <c r="D294" s="2" t="s">
@@ -18383,7 +18379,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H294,params!$E:$E,0)),"")&amp;IF(AND($H294&lt;&gt;"",$I294&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I294,params!$E:$E,0)),"")&amp;IF(AND($I294&lt;&gt;"",$J294&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J294,params!$E:$E,0)),"")</f>
         <v/>
       </c>
-      <c r="N294" s="5" t="e">
+      <c r="N294" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O294" s="2"/>
@@ -18400,14 +18396,14 @@
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>358</v>
       </c>
       <c r="C295" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Seed Bank</v>
       </c>
       <c r="D295" s="2" t="s">
@@ -18435,10 +18431,10 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H295,params!$E:$E,0)),"")&amp;IF(AND($H295&lt;&gt;"",$I295&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I295,params!$E:$E,0)),"")&amp;IF(AND($I295&lt;&gt;"",$J295&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J295,params!$E:$E,0)),"")</f>
         <v>1,9</v>
       </c>
-      <c r="M295" s="5" t="s">
+      <c r="M295" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="N295" s="5" t="e">
+      <c r="N295" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O295" s="2"/>
@@ -18455,14 +18451,14 @@
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>359</v>
       </c>
       <c r="C296" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Quant-Link Conferencing</v>
       </c>
       <c r="D296" s="2" t="s">
@@ -18490,7 +18486,7 @@
         <f>IFERROR(INDEX(params!$F:$F,MATCH($H296,params!$E:$E,0)),"")&amp;IF(AND($H296&lt;&gt;"",$I296&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($I296,params!$E:$E,0)),"")&amp;IF(AND($I296&lt;&gt;"",$J296&lt;&gt;""),",","")&amp;IFERROR(INDEX(params!$F:$F,MATCH($J296,params!$E:$E,0)),"")</f>
         <v>3</v>
       </c>
-      <c r="N296" s="5" t="e">
+      <c r="N296" s="4" t="e">
         <v>#N/A</v>
       </c>
       <c r="O296" s="2"/>
